--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929822216734485</v>
+        <v>0.9862940837809778</v>
       </c>
       <c r="D2">
-        <v>1.012991757397992</v>
+        <v>1.007788264571256</v>
       </c>
       <c r="E2">
-        <v>0.9979439861840089</v>
+        <v>0.9940304755366784</v>
       </c>
       <c r="F2">
-        <v>1.001395636215213</v>
+        <v>0.9959573533181266</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042118953972836</v>
+        <v>1.04029446683576</v>
       </c>
       <c r="J2">
-        <v>1.015374878686144</v>
+        <v>1.008892609863832</v>
       </c>
       <c r="K2">
-        <v>1.024273015611383</v>
+        <v>1.019140152454524</v>
       </c>
       <c r="L2">
-        <v>1.00943203905667</v>
+        <v>1.005573606604223</v>
       </c>
       <c r="M2">
-        <v>1.012835561792348</v>
+        <v>1.007473297437579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001855353104776</v>
+        <v>0.993730616655184</v>
       </c>
       <c r="D3">
-        <v>1.019961083746065</v>
+        <v>1.013513086168334</v>
       </c>
       <c r="E3">
-        <v>1.005638938991373</v>
+        <v>1.00021712320542</v>
       </c>
       <c r="F3">
-        <v>1.010495963111972</v>
+        <v>1.00378193850049</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045683834959254</v>
+        <v>1.042936072184903</v>
       </c>
       <c r="J3">
-        <v>1.022295566793527</v>
+        <v>1.014393662836286</v>
       </c>
       <c r="K3">
-        <v>1.030344773751882</v>
+        <v>1.023975935579268</v>
       </c>
       <c r="L3">
-        <v>1.01620017342051</v>
+        <v>1.010847226653226</v>
       </c>
       <c r="M3">
-        <v>1.020996284747432</v>
+        <v>1.014366656349731</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00738298315959</v>
+        <v>0.9983923463405844</v>
       </c>
       <c r="D4">
-        <v>1.024305343965182</v>
+        <v>1.01710328790462</v>
       </c>
       <c r="E4">
-        <v>1.010432789209188</v>
+        <v>1.004101373956021</v>
       </c>
       <c r="F4">
-        <v>1.016172912411642</v>
+        <v>1.008690503152067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04788918156858</v>
+        <v>1.044576135013931</v>
       </c>
       <c r="J4">
-        <v>1.026599698570177</v>
+        <v>1.017837265656734</v>
       </c>
       <c r="K4">
-        <v>1.034119014633634</v>
+        <v>1.026999582336906</v>
       </c>
       <c r="L4">
-        <v>1.020406909473807</v>
+        <v>1.014150549765171</v>
       </c>
       <c r="M4">
-        <v>1.026079985902513</v>
+        <v>1.018685160904953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009659107294079</v>
+        <v>1.000318248153726</v>
       </c>
       <c r="D5">
-        <v>1.026094683346614</v>
+        <v>1.018586749352848</v>
       </c>
       <c r="E5">
-        <v>1.012406711289544</v>
+        <v>1.005707425078785</v>
       </c>
       <c r="F5">
-        <v>1.018512357145174</v>
+        <v>1.010719240465012</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04879351200755</v>
+        <v>1.045249817167262</v>
       </c>
       <c r="J5">
-        <v>1.028370228258057</v>
+        <v>1.019258697147844</v>
       </c>
       <c r="K5">
-        <v>1.035671079458338</v>
+        <v>1.028246797760749</v>
       </c>
       <c r="L5">
-        <v>1.022136764978694</v>
+        <v>1.015514566738031</v>
       </c>
       <c r="M5">
-        <v>1.028173242019213</v>
+        <v>1.020468592852476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010038577001894</v>
+        <v>1.00063968507709</v>
       </c>
       <c r="D6">
-        <v>1.026393022821139</v>
+        <v>1.018834352950406</v>
       </c>
       <c r="E6">
-        <v>1.01273579296736</v>
+        <v>1.005975554914721</v>
       </c>
       <c r="F6">
-        <v>1.018902490579988</v>
+        <v>1.011057891510305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048944056085693</v>
+        <v>1.045362026091693</v>
       </c>
       <c r="J6">
-        <v>1.028665299314284</v>
+        <v>1.019495863067721</v>
       </c>
       <c r="K6">
-        <v>1.035929712089668</v>
+        <v>1.028454843806146</v>
       </c>
       <c r="L6">
-        <v>1.022425021367886</v>
+        <v>1.01574218149551</v>
       </c>
       <c r="M6">
-        <v>1.028522219170942</v>
+        <v>1.020766211132106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007413579875963</v>
+        <v>0.9984182108946286</v>
       </c>
       <c r="D7">
-        <v>1.024329395309447</v>
+        <v>1.017123209753019</v>
       </c>
       <c r="E7">
-        <v>1.01045932391092</v>
+        <v>1.004122937748444</v>
       </c>
       <c r="F7">
-        <v>1.01620435307917</v>
+        <v>1.008717745360927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047901353025778</v>
+        <v>1.044585197897874</v>
       </c>
       <c r="J7">
-        <v>1.026623506036868</v>
+        <v>1.017856360188889</v>
       </c>
       <c r="K7">
-        <v>1.034139886493938</v>
+        <v>1.027016340048383</v>
       </c>
       <c r="L7">
-        <v>1.020430172439619</v>
+        <v>1.014168871107287</v>
       </c>
       <c r="M7">
-        <v>1.026108124752532</v>
+        <v>1.018709114801293</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996027462693716</v>
+        <v>0.9888397014613394</v>
       </c>
       <c r="D8">
-        <v>1.015382969422749</v>
+        <v>1.009747552398617</v>
       </c>
       <c r="E8">
-        <v>1.000584777797357</v>
+        <v>0.9961469035504681</v>
       </c>
       <c r="F8">
-        <v>1.004517176967428</v>
+        <v>0.9986350518465977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043345649019942</v>
+        <v>1.041202032926535</v>
       </c>
       <c r="J8">
-        <v>1.017751530753206</v>
+        <v>1.010776668855479</v>
       </c>
       <c r="K8">
-        <v>1.026358523527731</v>
+        <v>1.020797086094196</v>
       </c>
       <c r="L8">
-        <v>1.011756833718496</v>
+        <v>1.007379321683731</v>
       </c>
       <c r="M8">
-        <v>1.015636305922124</v>
+        <v>1.009833544021745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9741441968215444</v>
+        <v>0.970706925771694</v>
       </c>
       <c r="D9">
-        <v>0.9982177617339119</v>
+        <v>0.9958031662369695</v>
       </c>
       <c r="E9">
-        <v>0.9816133887744882</v>
+        <v>0.9811021056765735</v>
       </c>
       <c r="F9">
-        <v>0.9821214466363292</v>
+        <v>0.9795768456375995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034465678082441</v>
+        <v>1.034671442472417</v>
       </c>
       <c r="J9">
-        <v>1.000644231832442</v>
+        <v>0.9973382625679913</v>
       </c>
       <c r="K9">
-        <v>1.011339820843714</v>
+        <v>1.008964703117133</v>
       </c>
       <c r="L9">
-        <v>0.9950119904594392</v>
+        <v>0.994509414526453</v>
       </c>
       <c r="M9">
-        <v>0.9955114076763297</v>
+        <v>0.9930101994820238</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9580320909970375</v>
+        <v>0.9576099691201407</v>
       </c>
       <c r="D10">
-        <v>0.9856117745647062</v>
+        <v>0.9857535289048988</v>
       </c>
       <c r="E10">
-        <v>0.9676587165531118</v>
+        <v>0.9702810337076239</v>
       </c>
       <c r="F10">
-        <v>0.9656805149534106</v>
+        <v>0.9658310404296595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027847534298868</v>
+        <v>1.0298735658919</v>
       </c>
       <c r="J10">
-        <v>0.9880157676606058</v>
+        <v>0.9876125810923525</v>
       </c>
       <c r="K10">
-        <v>1.000245764880521</v>
+        <v>1.000384861796942</v>
       </c>
       <c r="L10">
-        <v>0.9826375311742133</v>
+        <v>0.9852084374586804</v>
       </c>
       <c r="M10">
-        <v>0.9806983552088915</v>
+        <v>0.9808459037616459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506095908329933</v>
+        <v>0.9516556649533482</v>
       </c>
       <c r="D11">
-        <v>0.9798155282442674</v>
+        <v>0.9811923973736165</v>
       </c>
       <c r="E11">
-        <v>0.9612357927435078</v>
+        <v>0.9653744223208049</v>
       </c>
       <c r="F11">
-        <v>0.9581188947899519</v>
+        <v>0.95958630949651</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024781068533035</v>
+        <v>1.027674340948517</v>
       </c>
       <c r="J11">
-        <v>0.982191879106091</v>
+        <v>0.9831877204858602</v>
       </c>
       <c r="K11">
-        <v>0.9951284040593102</v>
+        <v>0.9964779323992725</v>
       </c>
       <c r="L11">
-        <v>0.976927740297028</v>
+        <v>0.9809802637963415</v>
       </c>
       <c r="M11">
-        <v>0.9738763407894334</v>
+        <v>0.9753128491478735</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.947776652078505</v>
+        <v>0.9493970136452178</v>
       </c>
       <c r="D12">
-        <v>0.977605284562056</v>
+        <v>0.9794636283635678</v>
       </c>
       <c r="E12">
-        <v>0.9587854745569429</v>
+        <v>0.9635153602015154</v>
       </c>
       <c r="F12">
-        <v>0.9552347971997538</v>
+        <v>0.9572181643061493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023608189127809</v>
+        <v>1.026837533104443</v>
       </c>
       <c r="J12">
-        <v>0.9799683083625367</v>
+        <v>0.9815088782473227</v>
       </c>
       <c r="K12">
-        <v>0.9931744873382584</v>
+        <v>0.9949951401737449</v>
       </c>
       <c r="L12">
-        <v>0.9747472967075482</v>
+        <v>0.97937659730565</v>
       </c>
       <c r="M12">
-        <v>0.9712729962327917</v>
+        <v>0.9732136074583294</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9483879234153991</v>
+        <v>0.9498837047213027</v>
       </c>
       <c r="D13">
-        <v>0.9780820987746401</v>
+        <v>0.9798360733655067</v>
       </c>
       <c r="E13">
-        <v>0.9593141319525743</v>
+        <v>0.963915846875008</v>
       </c>
       <c r="F13">
-        <v>0.9558570184085564</v>
+        <v>0.9577284187866586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023861374990246</v>
+        <v>1.027017961308887</v>
       </c>
       <c r="J13">
-        <v>0.9804481265131789</v>
+        <v>0.9818706466407836</v>
       </c>
       <c r="K13">
-        <v>0.993596120931022</v>
+        <v>0.9953146822196611</v>
       </c>
       <c r="L13">
-        <v>0.9752178277898298</v>
+        <v>0.9797221409450778</v>
       </c>
       <c r="M13">
-        <v>0.9718347072160473</v>
+        <v>0.9736659659100848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503770251241992</v>
+        <v>0.9514699498168481</v>
       </c>
       <c r="D14">
-        <v>0.9796340390327866</v>
+        <v>0.9810502211849839</v>
       </c>
       <c r="E14">
-        <v>0.9610346135246298</v>
+        <v>0.9652215177387968</v>
       </c>
       <c r="F14">
-        <v>0.9578820895620649</v>
+        <v>0.9593915777664178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024684832545257</v>
+        <v>1.027605586736167</v>
       </c>
       <c r="J14">
-        <v>0.9820093531040348</v>
+        <v>0.9830496859172904</v>
       </c>
       <c r="K14">
-        <v>0.9949680147197325</v>
+        <v>0.9963560260750597</v>
       </c>
       <c r="L14">
-        <v>0.9767487631303323</v>
+        <v>0.9808483988405722</v>
       </c>
       <c r="M14">
-        <v>0.9736626143859974</v>
+        <v>0.9751402488630924</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951592224064417</v>
+        <v>0.9524409227801989</v>
       </c>
       <c r="D15">
-        <v>0.9805824371477605</v>
+        <v>0.9817936185375501</v>
       </c>
       <c r="E15">
-        <v>0.9620858589654683</v>
+        <v>0.9660210368659149</v>
       </c>
       <c r="F15">
-        <v>0.9591195198123373</v>
+        <v>0.960409719402628</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025187582917827</v>
+        <v>1.027964950089994</v>
       </c>
       <c r="J15">
-        <v>0.9829630550504911</v>
+        <v>0.9837713573148696</v>
       </c>
       <c r="K15">
-        <v>0.9958060485527813</v>
+        <v>0.9969933575706937</v>
       </c>
       <c r="L15">
-        <v>0.9776839048486768</v>
+        <v>0.981537836852879</v>
       </c>
       <c r="M15">
-        <v>0.9747793916007752</v>
+        <v>0.9760426381880696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9585145820466835</v>
+        <v>0.9579988074849491</v>
       </c>
       <c r="D16">
-        <v>0.9859888073472896</v>
+        <v>0.9860515678973626</v>
       </c>
       <c r="E16">
-        <v>0.968076368699765</v>
+        <v>0.9706017396582449</v>
       </c>
       <c r="F16">
-        <v>0.9661723097831854</v>
+        <v>0.9662389380831401</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028046515836114</v>
+        <v>1.030016822740558</v>
       </c>
       <c r="J16">
-        <v>0.9883942278819452</v>
+        <v>0.9879014846778825</v>
       </c>
       <c r="K16">
-        <v>1.000578294734717</v>
+        <v>1.000639883255043</v>
       </c>
       <c r="L16">
-        <v>0.9830085160712286</v>
+        <v>0.9854845730848205</v>
       </c>
       <c r="M16">
-        <v>0.9811418623178225</v>
+        <v>0.9812071784391327</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627316499335891</v>
+        <v>0.9614063743195916</v>
       </c>
       <c r="D17">
-        <v>0.9892854197448671</v>
+        <v>0.9886643184212501</v>
       </c>
       <c r="E17">
-        <v>0.9717273935622583</v>
+        <v>0.9734137174464951</v>
       </c>
       <c r="F17">
-        <v>0.970472084424555</v>
+        <v>0.9698140424911615</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029783699142687</v>
+        <v>1.03127024016897</v>
       </c>
       <c r="J17">
-        <v>0.9917013662382504</v>
+        <v>0.990432926332168</v>
       </c>
       <c r="K17">
-        <v>1.003483959220855</v>
+        <v>1.002874065992108</v>
       </c>
       <c r="L17">
-        <v>0.9862499942072267</v>
+        <v>0.9879045314444056</v>
       </c>
       <c r="M17">
-        <v>0.9850184409995534</v>
+        <v>0.9843728842193026</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651490587008088</v>
+        <v>0.9633669510741537</v>
       </c>
       <c r="D18">
-        <v>0.9911761863857226</v>
+        <v>0.9901683000316873</v>
       </c>
       <c r="E18">
-        <v>0.9738208320820019</v>
+        <v>0.9750328192760571</v>
       </c>
       <c r="F18">
-        <v>0.9729380474527041</v>
+        <v>0.9718714418235183</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030777880537104</v>
+        <v>1.031989715436386</v>
       </c>
       <c r="J18">
-        <v>0.9935965730486293</v>
+        <v>0.9918891023431157</v>
       </c>
       <c r="K18">
-        <v>1.005148988680914</v>
+        <v>1.00415892726947</v>
       </c>
       <c r="L18">
-        <v>0.9881072892534162</v>
+        <v>0.9892969001896085</v>
       </c>
       <c r="M18">
-        <v>0.987240848753582</v>
+        <v>0.9861940422370157</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9659663955200489</v>
+        <v>0.9640310012317636</v>
       </c>
       <c r="D19">
-        <v>0.9918156241855582</v>
+        <v>0.9906778145216603</v>
       </c>
       <c r="E19">
-        <v>0.9745287128695305</v>
+        <v>0.9755814095764148</v>
       </c>
       <c r="F19">
-        <v>0.9737719923915547</v>
+        <v>0.9725683588431188</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031113734254568</v>
+        <v>1.032233112532427</v>
       </c>
       <c r="J19">
-        <v>0.9942372465633197</v>
+        <v>0.9923822544130538</v>
       </c>
       <c r="K19">
-        <v>1.005711831044179</v>
+        <v>1.00459400567896</v>
       </c>
       <c r="L19">
-        <v>0.9887350979759312</v>
+        <v>0.9897684969100897</v>
       </c>
       <c r="M19">
-        <v>0.9879922830912111</v>
+        <v>0.9868108257739413</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9622836364361171</v>
+        <v>0.9610435971406202</v>
       </c>
       <c r="D20">
-        <v>0.9889350870263237</v>
+        <v>0.9883860836988259</v>
       </c>
       <c r="E20">
-        <v>0.9713394606089933</v>
+        <v>0.9731142214936312</v>
       </c>
       <c r="F20">
-        <v>0.970015164752194</v>
+        <v>0.9694333844323441</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029599314706407</v>
+        <v>1.031136973514729</v>
       </c>
       <c r="J20">
-        <v>0.9913500823871788</v>
+        <v>0.9901634551239729</v>
       </c>
       <c r="K20">
-        <v>1.003175330543129</v>
+        <v>1.002636270924197</v>
       </c>
       <c r="L20">
-        <v>0.9859057142359191</v>
+        <v>0.9876468939208742</v>
       </c>
       <c r="M20">
-        <v>0.9846065808004301</v>
+        <v>0.9840358830913037</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9497934594908879</v>
+        <v>0.9510041750340953</v>
       </c>
       <c r="D21">
-        <v>0.9791786705475795</v>
+        <v>0.9806936658876826</v>
       </c>
       <c r="E21">
-        <v>0.9605298232767834</v>
+        <v>0.9648380676395883</v>
       </c>
       <c r="F21">
-        <v>0.9572879173193235</v>
+        <v>0.9589032000935602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024443312692477</v>
+        <v>1.027433109798928</v>
       </c>
       <c r="J21">
-        <v>0.9815513378411642</v>
+        <v>0.9827034890668365</v>
       </c>
       <c r="K21">
-        <v>0.9945655459621792</v>
+        <v>0.9960502723841621</v>
       </c>
       <c r="L21">
-        <v>0.9762996461100678</v>
+        <v>0.9805176846116143</v>
       </c>
       <c r="M21">
-        <v>0.9731263281977688</v>
+        <v>0.9747073601701881</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9414955211223083</v>
+        <v>0.9444176315410258</v>
       </c>
       <c r="D22">
-        <v>0.9727089251302187</v>
+        <v>0.9756553128054125</v>
       </c>
       <c r="E22">
-        <v>0.9533550740059216</v>
+        <v>0.9594211683504209</v>
       </c>
       <c r="F22">
-        <v>0.9488439303852971</v>
+        <v>0.9519986227153685</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02100325049016</v>
+        <v>1.024988117331065</v>
       </c>
       <c r="J22">
-        <v>0.9750370324955242</v>
+        <v>0.9778072361642537</v>
       </c>
       <c r="K22">
-        <v>0.9888411281695882</v>
+        <v>0.9917249769565164</v>
       </c>
       <c r="L22">
-        <v>0.9699108879822589</v>
+        <v>0.9758417630223831</v>
       </c>
       <c r="M22">
-        <v>0.9655017988069765</v>
+        <v>0.9685849877450827</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9459400396562642</v>
+        <v>0.9479369354093576</v>
       </c>
       <c r="D23">
-        <v>0.976172982580219</v>
+        <v>0.9783465164134976</v>
       </c>
       <c r="E23">
-        <v>0.9571972679760715</v>
+        <v>0.9623142317037416</v>
       </c>
       <c r="F23">
-        <v>0.953365576275774</v>
+        <v>0.9556874933350897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022847117747552</v>
+        <v>1.026295879577989</v>
       </c>
       <c r="J23">
-        <v>0.9785265582504571</v>
+        <v>0.9804235282200519</v>
       </c>
       <c r="K23">
-        <v>0.9919075602818674</v>
+        <v>0.9940364112864191</v>
       </c>
       <c r="L23">
-        <v>0.9733333903805238</v>
+        <v>0.9783400068488706</v>
       </c>
       <c r="M23">
-        <v>0.9695853602272856</v>
+        <v>0.971856473924962</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9624862046302989</v>
+        <v>0.9612076036424779</v>
       </c>
       <c r="D24">
-        <v>0.9890934859985534</v>
+        <v>0.9885118675459337</v>
       </c>
       <c r="E24">
-        <v>0.9715148619625372</v>
+        <v>0.9732496157123914</v>
       </c>
       <c r="F24">
-        <v>0.9702217562988251</v>
+        <v>0.9696054732989046</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029682688814619</v>
+        <v>1.031197226773729</v>
       </c>
       <c r="J24">
-        <v>0.9915089163601367</v>
+        <v>0.9902852802823504</v>
       </c>
       <c r="K24">
-        <v>1.003314878196813</v>
+        <v>1.002743776626388</v>
       </c>
       <c r="L24">
-        <v>0.9860613822711232</v>
+        <v>0.9877633681938317</v>
       </c>
       <c r="M24">
-        <v>0.9847928018096863</v>
+        <v>0.9841882374156633</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9800451772968432</v>
+        <v>0.9755590786219215</v>
       </c>
       <c r="D25">
-        <v>1.002842008190451</v>
+        <v>0.9995315329620155</v>
       </c>
       <c r="E25">
-        <v>0.9867275882054281</v>
+        <v>0.9851208734857437</v>
       </c>
       <c r="F25">
-        <v>0.9881527139505465</v>
+        <v>0.9846732940775917</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036874063148778</v>
+        <v>1.036433072280734</v>
       </c>
       <c r="J25">
-        <v>1.005263281896105</v>
+        <v>1.00093793291888</v>
       </c>
       <c r="K25">
-        <v>1.015396365266072</v>
+        <v>1.012137125633347</v>
       </c>
       <c r="L25">
-        <v>0.9995354958227631</v>
+        <v>0.997954645358937</v>
       </c>
       <c r="M25">
-        <v>1.000937770711708</v>
+        <v>0.9975142901995273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9862940837809778</v>
+        <v>1.031318127025096</v>
       </c>
       <c r="D2">
-        <v>1.007788264571256</v>
+        <v>1.050372504169351</v>
       </c>
       <c r="E2">
-        <v>0.9940304755366784</v>
+        <v>1.043978462320801</v>
       </c>
       <c r="F2">
-        <v>0.9959573533181266</v>
+        <v>1.055984298586015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04029446683576</v>
+        <v>1.064805619282072</v>
       </c>
       <c r="J2">
-        <v>1.008892609863832</v>
+        <v>1.052600831561293</v>
       </c>
       <c r="K2">
-        <v>1.019140152454524</v>
+        <v>1.061171994306604</v>
       </c>
       <c r="L2">
-        <v>1.005573606604223</v>
+        <v>1.054857309954523</v>
       </c>
       <c r="M2">
-        <v>1.007473297437579</v>
+        <v>1.066715123922078</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993730616655184</v>
+        <v>1.035506461412787</v>
       </c>
       <c r="D3">
-        <v>1.013513086168334</v>
+        <v>1.053655466641162</v>
       </c>
       <c r="E3">
-        <v>1.00021712320542</v>
+        <v>1.047423992466376</v>
       </c>
       <c r="F3">
-        <v>1.00378193850049</v>
+        <v>1.059640401817808</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042936072184903</v>
+        <v>1.066340381776939</v>
       </c>
       <c r="J3">
-        <v>1.014393662836286</v>
+        <v>1.055073856254455</v>
       </c>
       <c r="K3">
-        <v>1.023975935579268</v>
+        <v>1.063644932842789</v>
       </c>
       <c r="L3">
-        <v>1.010847226653226</v>
+        <v>1.057484007964591</v>
       </c>
       <c r="M3">
-        <v>1.014366656349731</v>
+        <v>1.06956307072493</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9983923463405844</v>
+        <v>1.038166090809248</v>
       </c>
       <c r="D4">
-        <v>1.01710328790462</v>
+        <v>1.055742515982162</v>
       </c>
       <c r="E4">
-        <v>1.004101373956021</v>
+        <v>1.0496170906733</v>
       </c>
       <c r="F4">
-        <v>1.008690503152067</v>
+        <v>1.061966800653891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044576135013931</v>
+        <v>1.067305650351625</v>
       </c>
       <c r="J4">
-        <v>1.017837265656734</v>
+        <v>1.056641446121003</v>
       </c>
       <c r="K4">
-        <v>1.026999582336906</v>
+        <v>1.065211692077077</v>
       </c>
       <c r="L4">
-        <v>1.014150549765171</v>
+        <v>1.05915140691117</v>
       </c>
       <c r="M4">
-        <v>1.018685160904953</v>
+        <v>1.071370725496828</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000318248153726</v>
+        <v>1.039272495939001</v>
       </c>
       <c r="D5">
-        <v>1.018586749352848</v>
+        <v>1.056611249916278</v>
       </c>
       <c r="E5">
-        <v>1.005707425078785</v>
+        <v>1.050530621194339</v>
       </c>
       <c r="F5">
-        <v>1.010719240465012</v>
+        <v>1.062935683850904</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045249817167262</v>
+        <v>1.067704932381068</v>
       </c>
       <c r="J5">
-        <v>1.019258697147844</v>
+        <v>1.057292862339814</v>
       </c>
       <c r="K5">
-        <v>1.028246797760749</v>
+        <v>1.065862571019005</v>
       </c>
       <c r="L5">
-        <v>1.015514566738031</v>
+        <v>1.059844875061561</v>
       </c>
       <c r="M5">
-        <v>1.020468592852476</v>
+        <v>1.072122479153528</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00063968507709</v>
+        <v>1.039457590901953</v>
       </c>
       <c r="D6">
-        <v>1.018834352950406</v>
+        <v>1.056756613469124</v>
       </c>
       <c r="E6">
-        <v>1.005975554914721</v>
+        <v>1.050683519063054</v>
       </c>
       <c r="F6">
-        <v>1.011057891510305</v>
+        <v>1.063097835972022</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045362026091693</v>
+        <v>1.067771595520709</v>
       </c>
       <c r="J6">
-        <v>1.019495863067721</v>
+        <v>1.057401798378436</v>
       </c>
       <c r="K6">
-        <v>1.028454843806146</v>
+        <v>1.065971405745356</v>
       </c>
       <c r="L6">
-        <v>1.01574218149551</v>
+        <v>1.059960877300811</v>
       </c>
       <c r="M6">
-        <v>1.020766211132106</v>
+        <v>1.072248228531147</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9984182108946286</v>
+        <v>1.038180920132502</v>
       </c>
       <c r="D7">
-        <v>1.017123209753019</v>
+        <v>1.05575415775057</v>
       </c>
       <c r="E7">
-        <v>1.004122937748444</v>
+        <v>1.049629330165346</v>
       </c>
       <c r="F7">
-        <v>1.008717745360927</v>
+        <v>1.061979782443836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044585197897874</v>
+        <v>1.067311010997122</v>
       </c>
       <c r="J7">
-        <v>1.017856360188889</v>
+        <v>1.056650179959744</v>
       </c>
       <c r="K7">
-        <v>1.027016340048383</v>
+        <v>1.065220419478961</v>
       </c>
       <c r="L7">
-        <v>1.014168871107287</v>
+        <v>1.059160702283505</v>
       </c>
       <c r="M7">
-        <v>1.018709114801293</v>
+        <v>1.071380802323984</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888397014613394</v>
+        <v>1.032744290067132</v>
       </c>
       <c r="D8">
-        <v>1.009747552398617</v>
+        <v>1.051489866202785</v>
       </c>
       <c r="E8">
-        <v>0.9961469035504681</v>
+        <v>1.045150592703712</v>
       </c>
       <c r="F8">
-        <v>0.9986350518465977</v>
+        <v>1.057228217355193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041202032926535</v>
+        <v>1.065330150033185</v>
       </c>
       <c r="J8">
-        <v>1.010776668855479</v>
+        <v>1.05344348677213</v>
       </c>
       <c r="K8">
-        <v>1.020797086094196</v>
+        <v>1.062014779250776</v>
       </c>
       <c r="L8">
-        <v>1.007379321683731</v>
+        <v>1.055751824589267</v>
       </c>
       <c r="M8">
-        <v>1.009833544021745</v>
+        <v>1.067685023532659</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.970706925771694</v>
+        <v>1.022759155151735</v>
       </c>
       <c r="D9">
-        <v>0.9958031662369695</v>
+        <v>1.043678335747689</v>
       </c>
       <c r="E9">
-        <v>0.9811021056765735</v>
+        <v>1.036967345474434</v>
       </c>
       <c r="F9">
-        <v>0.9795768456375995</v>
+        <v>1.048540627652343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034671442472417</v>
+        <v>1.061619676017396</v>
       </c>
       <c r="J9">
-        <v>0.9973382625679913</v>
+        <v>1.047533057097191</v>
       </c>
       <c r="K9">
-        <v>1.008964703117133</v>
+        <v>1.056100393754637</v>
       </c>
       <c r="L9">
-        <v>0.994509414526453</v>
+        <v>1.049487831854588</v>
       </c>
       <c r="M9">
-        <v>0.9930101994820238</v>
+        <v>1.060892368691737</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9576099691201407</v>
+        <v>1.015803000497578</v>
       </c>
       <c r="D10">
-        <v>0.9857535289048988</v>
+        <v>1.038253031149502</v>
       </c>
       <c r="E10">
-        <v>0.9702810337076239</v>
+        <v>1.031297797687103</v>
       </c>
       <c r="F10">
-        <v>0.9658310404296595</v>
+        <v>1.042517580393248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0298735658919</v>
+        <v>1.058988052801636</v>
       </c>
       <c r="J10">
-        <v>0.9876125810923525</v>
+        <v>1.043403357543978</v>
       </c>
       <c r="K10">
-        <v>1.000384861796942</v>
+        <v>1.051964335881273</v>
       </c>
       <c r="L10">
-        <v>0.9852084374586804</v>
+        <v>1.045124054879598</v>
       </c>
       <c r="M10">
-        <v>0.9808459037616459</v>
+        <v>1.056159376987651</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9516556649533482</v>
+        <v>1.012713418509443</v>
       </c>
       <c r="D11">
-        <v>0.9811923973736165</v>
+        <v>1.035847967655355</v>
       </c>
       <c r="E11">
-        <v>0.9653744223208049</v>
+        <v>1.028787685019588</v>
       </c>
       <c r="F11">
-        <v>0.95958630949651</v>
+        <v>1.039849964445085</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027674340948517</v>
+        <v>1.057808643535115</v>
       </c>
       <c r="J11">
-        <v>0.9831877204858602</v>
+        <v>1.041566704467901</v>
       </c>
       <c r="K11">
-        <v>0.9964779323992725</v>
+        <v>1.050124093011738</v>
       </c>
       <c r="L11">
-        <v>0.9809802637963415</v>
+        <v>1.043186388460372</v>
       </c>
       <c r="M11">
-        <v>0.9753128491478735</v>
+        <v>1.054057563188868</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9493970136452178</v>
+        <v>1.011553572606924</v>
       </c>
       <c r="D12">
-        <v>0.9794636283635678</v>
+        <v>1.034945841286244</v>
       </c>
       <c r="E12">
-        <v>0.9635153602015154</v>
+        <v>1.027846633173186</v>
       </c>
       <c r="F12">
-        <v>0.9572181643061493</v>
+        <v>1.038849711741087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026837533104443</v>
+        <v>1.057364343499374</v>
       </c>
       <c r="J12">
-        <v>0.9815088782473227</v>
+        <v>1.040876887445124</v>
       </c>
       <c r="K12">
-        <v>0.9949951401737449</v>
+        <v>1.049432821195771</v>
       </c>
       <c r="L12">
-        <v>0.97937659730565</v>
+        <v>1.042459098660761</v>
       </c>
       <c r="M12">
-        <v>0.9732136074583294</v>
+        <v>1.053268632705374</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9498837047213027</v>
+        <v>1.011802927164063</v>
       </c>
       <c r="D13">
-        <v>0.9798360733655067</v>
+        <v>1.035139754140838</v>
       </c>
       <c r="E13">
-        <v>0.963915846875008</v>
+        <v>1.028048891602886</v>
       </c>
       <c r="F13">
-        <v>0.9577284187866586</v>
+        <v>1.03906470101573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027017961308887</v>
+        <v>1.05745993229375</v>
       </c>
       <c r="J13">
-        <v>0.9818706466407836</v>
+        <v>1.041025204925946</v>
       </c>
       <c r="K13">
-        <v>0.9953146822196611</v>
+        <v>1.049581456154113</v>
       </c>
       <c r="L13">
-        <v>0.9797221409450778</v>
+        <v>1.042615452061237</v>
       </c>
       <c r="M13">
-        <v>0.9736659659100848</v>
+        <v>1.053438238964217</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9514699498168481</v>
+        <v>1.012617798475943</v>
       </c>
       <c r="D14">
-        <v>0.9810502211849839</v>
+        <v>1.03577357899663</v>
       </c>
       <c r="E14">
-        <v>0.9652215177387968</v>
+        <v>1.028710076914454</v>
       </c>
       <c r="F14">
-        <v>0.9593915777664178</v>
+        <v>1.039767477183872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027605586736167</v>
+        <v>1.057772045660824</v>
       </c>
       <c r="J14">
-        <v>0.9830496859172904</v>
+        <v>1.041509840986291</v>
       </c>
       <c r="K14">
-        <v>0.9963560260750597</v>
+        <v>1.050067111726368</v>
       </c>
       <c r="L14">
-        <v>0.9808483988405722</v>
+        <v>1.043126426507218</v>
       </c>
       <c r="M14">
-        <v>0.9751402488630924</v>
+        <v>1.053992519806001</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9524409227801989</v>
+        <v>1.013118227686941</v>
       </c>
       <c r="D15">
-        <v>0.9817936185375501</v>
+        <v>1.03616292425163</v>
       </c>
       <c r="E15">
-        <v>0.9660210368659149</v>
+        <v>1.029116291991383</v>
       </c>
       <c r="F15">
-        <v>0.960409719402628</v>
+        <v>1.040199224434377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027964950089994</v>
+        <v>1.057963518646205</v>
       </c>
       <c r="J15">
-        <v>0.9837713573148696</v>
+        <v>1.041807423953986</v>
       </c>
       <c r="K15">
-        <v>0.9969933575706937</v>
+        <v>1.050365306899886</v>
       </c>
       <c r="L15">
-        <v>0.981537836852879</v>
+        <v>1.04344024368747</v>
       </c>
       <c r="M15">
-        <v>0.9760426381880696</v>
+        <v>1.054332930005023</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9579988074849491</v>
+        <v>1.016006362993279</v>
       </c>
       <c r="D16">
-        <v>0.9860515678973626</v>
+        <v>1.038411437835224</v>
       </c>
       <c r="E16">
-        <v>0.9706017396582449</v>
+        <v>1.031463190070284</v>
       </c>
       <c r="F16">
-        <v>0.9662389380831401</v>
+        <v>1.042693329715585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030016822740558</v>
+        <v>1.059065467162709</v>
       </c>
       <c r="J16">
-        <v>0.9879014846778825</v>
+        <v>1.043524202094174</v>
       </c>
       <c r="K16">
-        <v>1.000639883255043</v>
+        <v>1.052085401406744</v>
       </c>
       <c r="L16">
-        <v>0.9854845730848205</v>
+        <v>1.045251610290552</v>
       </c>
       <c r="M16">
-        <v>0.9812071784391327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.056297734000615</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9614063743195916</v>
+        <v>1.017796853614948</v>
       </c>
       <c r="D17">
-        <v>0.9886643184212501</v>
+        <v>1.039806648261344</v>
       </c>
       <c r="E17">
-        <v>0.9734137174464951</v>
+        <v>1.032920296123259</v>
       </c>
       <c r="F17">
-        <v>0.9698140424911615</v>
+        <v>1.044241566285857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03127024016897</v>
+        <v>1.059745856716767</v>
       </c>
       <c r="J17">
-        <v>0.990432926332168</v>
+        <v>1.044587895505095</v>
       </c>
       <c r="K17">
-        <v>1.002874065992108</v>
+        <v>1.053150954024772</v>
       </c>
       <c r="L17">
-        <v>0.9879045314444056</v>
+        <v>1.046374726056876</v>
       </c>
       <c r="M17">
-        <v>0.9843728842193026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.057515934037331</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633669510741537</v>
+        <v>1.018833778644059</v>
       </c>
       <c r="D18">
-        <v>0.9901683000316873</v>
+        <v>1.040615087335745</v>
       </c>
       <c r="E18">
-        <v>0.9750328192760571</v>
+        <v>1.033764907203972</v>
       </c>
       <c r="F18">
-        <v>0.9718714418235183</v>
+        <v>1.045138906446104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031989715436386</v>
+        <v>1.060138882341817</v>
       </c>
       <c r="J18">
-        <v>0.9918891023431157</v>
+        <v>1.04520367629058</v>
       </c>
       <c r="K18">
-        <v>1.00415892726947</v>
+        <v>1.053767738224034</v>
       </c>
       <c r="L18">
-        <v>0.9892969001896085</v>
+        <v>1.047025200302019</v>
       </c>
       <c r="M18">
-        <v>0.9861940422370157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.05822145874417</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9640310012317636</v>
+        <v>1.019186099038005</v>
       </c>
       <c r="D19">
-        <v>0.9906778145216603</v>
+        <v>1.040889845726726</v>
       </c>
       <c r="E19">
-        <v>0.9755814095764148</v>
+        <v>1.034052011433431</v>
       </c>
       <c r="F19">
-        <v>0.9725683588431188</v>
+        <v>1.045443918607239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032233112532427</v>
+        <v>1.060272250073259</v>
       </c>
       <c r="J19">
-        <v>0.9923822544130538</v>
+        <v>1.045412861722004</v>
       </c>
       <c r="K19">
-        <v>1.00459400567896</v>
+        <v>1.053977251924979</v>
       </c>
       <c r="L19">
-        <v>0.9897684969100897</v>
+        <v>1.047246221080741</v>
       </c>
       <c r="M19">
-        <v>0.9868108257739413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.05846118145331</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9610435971406202</v>
+        <v>1.017605524402482</v>
       </c>
       <c r="D20">
-        <v>0.9883860836988259</v>
+        <v>1.039657512873544</v>
       </c>
       <c r="E20">
-        <v>0.9731142214936312</v>
+        <v>1.032764512834702</v>
       </c>
       <c r="F20">
-        <v>0.9694333844323441</v>
+        <v>1.044076049814874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031136973514729</v>
+        <v>1.059673255486187</v>
       </c>
       <c r="J20">
-        <v>0.9901634551239729</v>
+        <v>1.04447425486795</v>
       </c>
       <c r="K20">
-        <v>1.002636270924197</v>
+        <v>1.053037122263797</v>
       </c>
       <c r="L20">
-        <v>0.9876468939208742</v>
+        <v>1.046254706533865</v>
       </c>
       <c r="M20">
-        <v>0.9840358830913037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.057385755529279</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9510041750340953</v>
+        <v>1.012378181934303</v>
       </c>
       <c r="D21">
-        <v>0.9806936658876826</v>
+        <v>1.035587178914879</v>
       </c>
       <c r="E21">
-        <v>0.9648380676395883</v>
+        <v>1.028515617353851</v>
       </c>
       <c r="F21">
-        <v>0.9589032000935602</v>
+        <v>1.03956078965271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027433109798928</v>
+        <v>1.057680309454809</v>
       </c>
       <c r="J21">
-        <v>0.9827034890668365</v>
+        <v>1.041367340281582</v>
       </c>
       <c r="K21">
-        <v>0.9960502723841621</v>
+        <v>1.049924314115053</v>
       </c>
       <c r="L21">
-        <v>0.9805176846116143</v>
+        <v>1.042976168505938</v>
       </c>
       <c r="M21">
-        <v>0.9747073601701881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.053829527842102</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,75 +1241,81 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9444176315410258</v>
+        <v>1.00902042120422</v>
       </c>
       <c r="D22">
-        <v>0.9756553128054125</v>
+        <v>1.032977000011654</v>
       </c>
       <c r="E22">
-        <v>0.9594211683504209</v>
+        <v>1.025793709746228</v>
       </c>
       <c r="F22">
-        <v>0.9519986227153685</v>
+        <v>1.03666735806136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024988117331065</v>
+        <v>1.056391188359265</v>
       </c>
       <c r="J22">
-        <v>0.9778072361642537</v>
+        <v>1.039369741837753</v>
       </c>
       <c r="K22">
-        <v>0.9917249769565164</v>
+        <v>1.04792231029251</v>
       </c>
       <c r="L22">
-        <v>0.9758417630223831</v>
+        <v>1.040870939979513</v>
       </c>
       <c r="M22">
-        <v>0.9685849877450827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.051545819550018</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9479369354093576</v>
+        <v>1.010807382489747</v>
       </c>
       <c r="D23">
-        <v>0.9783465164134976</v>
+        <v>1.034365673844268</v>
       </c>
       <c r="E23">
-        <v>0.9623142317037416</v>
+        <v>1.027241566132345</v>
       </c>
       <c r="F23">
-        <v>0.9556874933350897</v>
+        <v>1.038206537189482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026295879577989</v>
+        <v>1.057078072725817</v>
       </c>
       <c r="J23">
-        <v>0.9804235282200519</v>
+        <v>1.04043300455569</v>
       </c>
       <c r="K23">
-        <v>0.9940364112864191</v>
+        <v>1.048987973180577</v>
       </c>
       <c r="L23">
-        <v>0.9783400068488706</v>
+        <v>1.041991234433972</v>
       </c>
       <c r="M23">
-        <v>0.971856473924962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.052761107132745</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9612076036424779</v>
+        <v>1.017692000780395</v>
       </c>
       <c r="D24">
-        <v>0.9885118675459337</v>
+        <v>1.039724917283325</v>
       </c>
       <c r="E24">
-        <v>0.9732496157123914</v>
+        <v>1.032834920929575</v>
       </c>
       <c r="F24">
-        <v>0.9696054732989046</v>
+        <v>1.044150857229578</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031197226773729</v>
+        <v>1.059706072689728</v>
       </c>
       <c r="J24">
-        <v>0.9902852802823504</v>
+        <v>1.044525618538149</v>
       </c>
       <c r="K24">
-        <v>1.002743776626388</v>
+        <v>1.053088572545364</v>
       </c>
       <c r="L24">
-        <v>0.9877633681938317</v>
+        <v>1.046308952444591</v>
       </c>
       <c r="M24">
-        <v>0.9841882374156633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.057444593114967</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9755590786219215</v>
+        <v>1.025391244911434</v>
       </c>
       <c r="D25">
-        <v>0.9995315329620155</v>
+        <v>1.045734800353848</v>
       </c>
       <c r="E25">
-        <v>0.9851208734857437</v>
+        <v>1.03911923501447</v>
       </c>
       <c r="F25">
-        <v>0.9846732940775917</v>
+        <v>1.05082583747728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036433072280734</v>
+        <v>1.062605990617838</v>
       </c>
       <c r="J25">
-        <v>1.00093793291888</v>
+        <v>1.04909329965109</v>
       </c>
       <c r="K25">
-        <v>1.012137125633347</v>
+        <v>1.057662329398194</v>
       </c>
       <c r="L25">
-        <v>0.997954645358937</v>
+        <v>1.051139177283498</v>
       </c>
       <c r="M25">
-        <v>0.9975142901995273</v>
+        <v>1.062683247467035</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031318127025096</v>
+        <v>1.053018007093146</v>
       </c>
       <c r="D2">
-        <v>1.050372504169351</v>
+        <v>1.061105909166578</v>
       </c>
       <c r="E2">
-        <v>1.043978462320801</v>
+        <v>1.060020846678676</v>
       </c>
       <c r="F2">
-        <v>1.055984298586015</v>
+        <v>1.071333808338326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064805619282072</v>
+        <v>1.052944360494309</v>
       </c>
       <c r="J2">
-        <v>1.052600831561293</v>
+        <v>1.05803755917594</v>
       </c>
       <c r="K2">
-        <v>1.061171994306604</v>
+        <v>1.063830872483262</v>
       </c>
       <c r="L2">
-        <v>1.054857309954523</v>
+        <v>1.062748762451211</v>
       </c>
       <c r="M2">
-        <v>1.066715123922078</v>
+        <v>1.074031259345916</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035506461412787</v>
+        <v>1.053909042993574</v>
       </c>
       <c r="D3">
-        <v>1.053655466641162</v>
+        <v>1.061824267095554</v>
       </c>
       <c r="E3">
-        <v>1.047423992466376</v>
+        <v>1.060798764278584</v>
       </c>
       <c r="F3">
-        <v>1.059640401817808</v>
+        <v>1.072157001239556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066340381776939</v>
+        <v>1.053212037405383</v>
       </c>
       <c r="J3">
-        <v>1.055073856254455</v>
+        <v>1.058579594282444</v>
       </c>
       <c r="K3">
-        <v>1.063644932842789</v>
+        <v>1.064364029088813</v>
       </c>
       <c r="L3">
-        <v>1.057484007964591</v>
+        <v>1.063341115819466</v>
       </c>
       <c r="M3">
-        <v>1.06956307072493</v>
+        <v>1.074670969082837</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038166090809248</v>
+        <v>1.054486227100928</v>
       </c>
       <c r="D4">
-        <v>1.055742515982162</v>
+        <v>1.062289602363471</v>
       </c>
       <c r="E4">
-        <v>1.0496170906733</v>
+        <v>1.061303013420158</v>
       </c>
       <c r="F4">
-        <v>1.061966800653891</v>
+        <v>1.07269053622579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067305650351625</v>
+        <v>1.053384280490474</v>
       </c>
       <c r="J4">
-        <v>1.056641446121003</v>
+        <v>1.058930278682203</v>
       </c>
       <c r="K4">
-        <v>1.065211692077077</v>
+        <v>1.064708852198147</v>
       </c>
       <c r="L4">
-        <v>1.05915140691117</v>
+        <v>1.063724629630746</v>
       </c>
       <c r="M4">
-        <v>1.071370725496828</v>
+        <v>1.075085123189501</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039272495939001</v>
+        <v>1.054729023267185</v>
       </c>
       <c r="D5">
-        <v>1.056611249916278</v>
+        <v>1.062485349629588</v>
       </c>
       <c r="E5">
-        <v>1.050530621194339</v>
+        <v>1.061515209761781</v>
       </c>
       <c r="F5">
-        <v>1.062935683850904</v>
+        <v>1.072915041796815</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067704932381068</v>
+        <v>1.053456460439743</v>
       </c>
       <c r="J5">
-        <v>1.057292862339814</v>
+        <v>1.05907769354267</v>
       </c>
       <c r="K5">
-        <v>1.065862571019005</v>
+        <v>1.064853775072621</v>
       </c>
       <c r="L5">
-        <v>1.059844875061561</v>
+        <v>1.063885910519064</v>
       </c>
       <c r="M5">
-        <v>1.072122479153528</v>
+        <v>1.075259284557543</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039457590901953</v>
+        <v>1.054769798445487</v>
       </c>
       <c r="D6">
-        <v>1.056756613469124</v>
+        <v>1.062518223463274</v>
       </c>
       <c r="E6">
-        <v>1.050683519063054</v>
+        <v>1.06155085072549</v>
       </c>
       <c r="F6">
-        <v>1.063097835972022</v>
+        <v>1.072952749383255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067771595520709</v>
+        <v>1.053468566199314</v>
       </c>
       <c r="J6">
-        <v>1.057401798378436</v>
+        <v>1.059102444356297</v>
       </c>
       <c r="K6">
-        <v>1.065971405745356</v>
+        <v>1.064878105833176</v>
       </c>
       <c r="L6">
-        <v>1.059960877300811</v>
+        <v>1.063912993280928</v>
       </c>
       <c r="M6">
-        <v>1.072248228531147</v>
+        <v>1.075288529964186</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038180920132502</v>
+        <v>1.054489470775632</v>
       </c>
       <c r="D7">
-        <v>1.05575415775057</v>
+        <v>1.062292217477373</v>
       </c>
       <c r="E7">
-        <v>1.049629330165346</v>
+        <v>1.061305847975071</v>
       </c>
       <c r="F7">
-        <v>1.061979782443836</v>
+        <v>1.072693535267298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067311010997122</v>
+        <v>1.05338524587132</v>
       </c>
       <c r="J7">
-        <v>1.056650179959744</v>
+        <v>1.058932248498867</v>
       </c>
       <c r="K7">
-        <v>1.065220419478961</v>
+        <v>1.064710788826469</v>
       </c>
       <c r="L7">
-        <v>1.059160702283505</v>
+        <v>1.063726784472503</v>
       </c>
       <c r="M7">
-        <v>1.071380802323984</v>
+        <v>1.075087450143756</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032744290067132</v>
+        <v>1.053319006685156</v>
       </c>
       <c r="D8">
-        <v>1.051489866202785</v>
+        <v>1.061348575047739</v>
       </c>
       <c r="E8">
-        <v>1.045150592703712</v>
+        <v>1.060283563403291</v>
       </c>
       <c r="F8">
-        <v>1.057228217355193</v>
+        <v>1.071611828152147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065330150033185</v>
+        <v>1.053035021824434</v>
       </c>
       <c r="J8">
-        <v>1.05344348677213</v>
+        <v>1.058220751789017</v>
       </c>
       <c r="K8">
-        <v>1.062014779250776</v>
+        <v>1.064011088614155</v>
       </c>
       <c r="L8">
-        <v>1.055751824589267</v>
+        <v>1.062948904347877</v>
       </c>
       <c r="M8">
-        <v>1.067685023532659</v>
+        <v>1.074247405984984</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022759155151735</v>
+        <v>1.051261346774266</v>
       </c>
       <c r="D9">
-        <v>1.043678335747689</v>
+        <v>1.059689734649113</v>
       </c>
       <c r="E9">
-        <v>1.036967345474434</v>
+        <v>1.058489017726863</v>
       </c>
       <c r="F9">
-        <v>1.048540627652343</v>
+        <v>1.069712496700278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061619676017396</v>
+        <v>1.052410551353993</v>
       </c>
       <c r="J9">
-        <v>1.047533057097191</v>
+        <v>1.056966686436869</v>
       </c>
       <c r="K9">
-        <v>1.056100393754637</v>
+        <v>1.062776921874709</v>
       </c>
       <c r="L9">
-        <v>1.049487831854588</v>
+        <v>1.061579937416452</v>
       </c>
       <c r="M9">
-        <v>1.060892368691737</v>
+        <v>1.072768884507635</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.015803000497578</v>
+        <v>1.049892921084038</v>
       </c>
       <c r="D10">
-        <v>1.038253031149502</v>
+        <v>1.058586616465713</v>
       </c>
       <c r="E10">
-        <v>1.031297797687103</v>
+        <v>1.057297362969619</v>
       </c>
       <c r="F10">
-        <v>1.042517580393248</v>
+        <v>1.068450938233449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058988052801636</v>
+        <v>1.051989355970345</v>
       </c>
       <c r="J10">
-        <v>1.043403357543978</v>
+        <v>1.056130503079364</v>
       </c>
       <c r="K10">
-        <v>1.051964335881273</v>
+        <v>1.061953410325995</v>
       </c>
       <c r="L10">
-        <v>1.045124054879598</v>
+        <v>1.060668555365912</v>
       </c>
       <c r="M10">
-        <v>1.056159376987651</v>
+        <v>1.07178446386943</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012713418509443</v>
+        <v>1.049301190159279</v>
       </c>
       <c r="D11">
-        <v>1.035847967655355</v>
+        <v>1.05810963362659</v>
       </c>
       <c r="E11">
-        <v>1.028787685019588</v>
+        <v>1.056782501980701</v>
       </c>
       <c r="F11">
-        <v>1.039849964445085</v>
+        <v>1.067905798036585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057808643535115</v>
+        <v>1.051805825725086</v>
       </c>
       <c r="J11">
-        <v>1.041566704467901</v>
+        <v>1.055768408735586</v>
       </c>
       <c r="K11">
-        <v>1.050124093011738</v>
+        <v>1.061596662851529</v>
       </c>
       <c r="L11">
-        <v>1.043186388460372</v>
+        <v>1.06027423340318</v>
       </c>
       <c r="M11">
-        <v>1.054057563188868</v>
+        <v>1.071358516317762</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011553572606924</v>
+        <v>1.049081517574641</v>
       </c>
       <c r="D12">
-        <v>1.034945841286244</v>
+        <v>1.057932564024835</v>
       </c>
       <c r="E12">
-        <v>1.027846633173186</v>
+        <v>1.05659143172121</v>
       </c>
       <c r="F12">
-        <v>1.038849711741087</v>
+        <v>1.067703479233458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057364343499374</v>
+        <v>1.051737482441218</v>
       </c>
       <c r="J12">
-        <v>1.040876887445124</v>
+        <v>1.055633908785934</v>
       </c>
       <c r="K12">
-        <v>1.049432821195771</v>
+        <v>1.061464127974671</v>
       </c>
       <c r="L12">
-        <v>1.042459098660761</v>
+        <v>1.06012781298416</v>
       </c>
       <c r="M12">
-        <v>1.053268632705374</v>
+        <v>1.07120034895368</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011802927164063</v>
+        <v>1.049128632516925</v>
       </c>
       <c r="D13">
-        <v>1.035139754140838</v>
+        <v>1.057970541364264</v>
       </c>
       <c r="E13">
-        <v>1.028048891602886</v>
+        <v>1.05663240912727</v>
       </c>
       <c r="F13">
-        <v>1.03906470101573</v>
+        <v>1.067746869556939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05745993229375</v>
+        <v>1.051752150077551</v>
       </c>
       <c r="J13">
-        <v>1.041025204925946</v>
+        <v>1.055662759551883</v>
       </c>
       <c r="K13">
-        <v>1.049581456154113</v>
+        <v>1.061492558174879</v>
       </c>
       <c r="L13">
-        <v>1.042615452061237</v>
+        <v>1.060159218452737</v>
       </c>
       <c r="M13">
-        <v>1.053438238964217</v>
+        <v>1.071234274170619</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012617798475943</v>
+        <v>1.049283029444817</v>
       </c>
       <c r="D14">
-        <v>1.03577357899663</v>
+        <v>1.058094994885749</v>
       </c>
       <c r="E14">
-        <v>1.028710076914454</v>
+        <v>1.056766704533803</v>
       </c>
       <c r="F14">
-        <v>1.039767477183872</v>
+        <v>1.0678890708117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057772045660824</v>
+        <v>1.051800179951751</v>
       </c>
       <c r="J14">
-        <v>1.041509840986291</v>
+        <v>1.05575729096122</v>
       </c>
       <c r="K14">
-        <v>1.050067111726368</v>
+        <v>1.061585707938605</v>
       </c>
       <c r="L14">
-        <v>1.043126426507218</v>
+        <v>1.060262129252137</v>
       </c>
       <c r="M14">
-        <v>1.053992519806001</v>
+        <v>1.071345441155684</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013118227686941</v>
+        <v>1.049378174781255</v>
       </c>
       <c r="D15">
-        <v>1.03616292425163</v>
+        <v>1.058171688515695</v>
       </c>
       <c r="E15">
-        <v>1.029116291991383</v>
+        <v>1.056849471215075</v>
       </c>
       <c r="F15">
-        <v>1.040199224434377</v>
+        <v>1.067976708350671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057963518646205</v>
+        <v>1.051829749976759</v>
       </c>
       <c r="J15">
-        <v>1.041807423953986</v>
+        <v>1.055815534655861</v>
       </c>
       <c r="K15">
-        <v>1.050365306899886</v>
+        <v>1.061643097575772</v>
       </c>
       <c r="L15">
-        <v>1.04344024368747</v>
+        <v>1.0603255424353</v>
       </c>
       <c r="M15">
-        <v>1.054332930005023</v>
+        <v>1.071413941278208</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016006362993279</v>
+        <v>1.049932209432676</v>
       </c>
       <c r="D16">
-        <v>1.038411437835224</v>
+        <v>1.058618286605096</v>
       </c>
       <c r="E16">
-        <v>1.031463190070284</v>
+        <v>1.057331556626968</v>
       </c>
       <c r="F16">
-        <v>1.042693329715585</v>
+        <v>1.068487141208185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059065467162709</v>
+        <v>1.052001512108056</v>
       </c>
       <c r="J16">
-        <v>1.043524202094174</v>
+        <v>1.056154533742001</v>
       </c>
       <c r="K16">
-        <v>1.052085401406744</v>
+        <v>1.061977083187496</v>
       </c>
       <c r="L16">
-        <v>1.045251610290552</v>
+        <v>1.060694731916308</v>
       </c>
       <c r="M16">
-        <v>1.056297734000615</v>
+        <v>1.071812739328616</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.017796853614948</v>
+        <v>1.050279957673055</v>
       </c>
       <c r="D17">
-        <v>1.039806648261344</v>
+        <v>1.058898607607761</v>
       </c>
       <c r="E17">
-        <v>1.032920296123259</v>
+        <v>1.057634260749678</v>
       </c>
       <c r="F17">
-        <v>1.044241566285857</v>
+        <v>1.068807624189348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059745856716767</v>
+        <v>1.052108946650097</v>
       </c>
       <c r="J17">
-        <v>1.044587895505095</v>
+        <v>1.056367174043776</v>
       </c>
       <c r="K17">
-        <v>1.053150954024772</v>
+        <v>1.062186541198804</v>
       </c>
       <c r="L17">
-        <v>1.046374726056876</v>
+        <v>1.060926399349553</v>
       </c>
       <c r="M17">
-        <v>1.057515934037331</v>
+        <v>1.072062979678403</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.018833778644059</v>
+        <v>1.050482871048108</v>
       </c>
       <c r="D18">
-        <v>1.040615087335745</v>
+        <v>1.059062179081822</v>
       </c>
       <c r="E18">
-        <v>1.033764907203972</v>
+        <v>1.057810932180458</v>
       </c>
       <c r="F18">
-        <v>1.045138906446104</v>
+        <v>1.068994664715341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060138882341817</v>
+        <v>1.052171500403442</v>
       </c>
       <c r="J18">
-        <v>1.04520367629058</v>
+        <v>1.056491201383666</v>
       </c>
       <c r="K18">
-        <v>1.053767738224034</v>
+        <v>1.06230869884035</v>
       </c>
       <c r="L18">
-        <v>1.047025200302019</v>
+        <v>1.061061557101785</v>
       </c>
       <c r="M18">
-        <v>1.05822145874417</v>
+        <v>1.072208970748848</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019186099038005</v>
+        <v>1.050552072401511</v>
       </c>
       <c r="D19">
-        <v>1.040889845726726</v>
+        <v>1.059117963696432</v>
       </c>
       <c r="E19">
-        <v>1.034052011433431</v>
+        <v>1.057871191047818</v>
       </c>
       <c r="F19">
-        <v>1.045443918607239</v>
+        <v>1.069058459002381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060272250073259</v>
+        <v>1.052192810766175</v>
       </c>
       <c r="J19">
-        <v>1.045412861722004</v>
+        <v>1.056533491099186</v>
       </c>
       <c r="K19">
-        <v>1.053977251924979</v>
+        <v>1.062350348741722</v>
       </c>
       <c r="L19">
-        <v>1.047246221080741</v>
+        <v>1.06110764745922</v>
       </c>
       <c r="M19">
-        <v>1.05846118145331</v>
+        <v>1.072258754992814</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017605524402482</v>
+        <v>1.050242639529398</v>
       </c>
       <c r="D20">
-        <v>1.039657512873544</v>
+        <v>1.058868525084009</v>
       </c>
       <c r="E20">
-        <v>1.032764512834702</v>
+        <v>1.057601772150455</v>
       </c>
       <c r="F20">
-        <v>1.044076049814874</v>
+        <v>1.068773228191047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059673255486187</v>
+        <v>1.052097431415872</v>
       </c>
       <c r="J20">
-        <v>1.04447425486795</v>
+        <v>1.056344359965349</v>
       </c>
       <c r="K20">
-        <v>1.053037122263797</v>
+        <v>1.062164069948277</v>
       </c>
       <c r="L20">
-        <v>1.046254706533865</v>
+        <v>1.060901540507531</v>
       </c>
       <c r="M20">
-        <v>1.057385755529279</v>
+        <v>1.072036128132173</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012378181934303</v>
+        <v>1.049237560000839</v>
       </c>
       <c r="D21">
-        <v>1.035587178914879</v>
+        <v>1.058058343566846</v>
       </c>
       <c r="E21">
-        <v>1.028515617353851</v>
+        <v>1.056727153120657</v>
       </c>
       <c r="F21">
-        <v>1.03956078965271</v>
+        <v>1.067847191364069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057680309454809</v>
+        <v>1.051786041092141</v>
       </c>
       <c r="J21">
-        <v>1.041367340281582</v>
+        <v>1.055729453862288</v>
       </c>
       <c r="K21">
-        <v>1.049924314115053</v>
+        <v>1.061558278278909</v>
       </c>
       <c r="L21">
-        <v>1.042976168505938</v>
+        <v>1.060231823241971</v>
       </c>
       <c r="M21">
-        <v>1.053829527842102</v>
+        <v>1.071312703897976</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00902042120422</v>
+        <v>1.048606336826702</v>
       </c>
       <c r="D22">
-        <v>1.032977000011654</v>
+        <v>1.057549547423537</v>
       </c>
       <c r="E22">
-        <v>1.025793709746228</v>
+        <v>1.056178241639776</v>
       </c>
       <c r="F22">
-        <v>1.03666735806136</v>
+        <v>1.067265942843984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056391188359265</v>
+        <v>1.051589263004012</v>
       </c>
       <c r="J22">
-        <v>1.039369741837753</v>
+        <v>1.055342827097657</v>
       </c>
       <c r="K22">
-        <v>1.04792231029251</v>
+        <v>1.061177260692187</v>
       </c>
       <c r="L22">
-        <v>1.040870939979513</v>
+        <v>1.059811025630284</v>
       </c>
       <c r="M22">
-        <v>1.051545819550018</v>
+        <v>1.070858139837645</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010807382489747</v>
+        <v>1.048940892361828</v>
       </c>
       <c r="D23">
-        <v>1.034365673844268</v>
+        <v>1.05781921271404</v>
       </c>
       <c r="E23">
-        <v>1.027241566132345</v>
+        <v>1.056469134984968</v>
       </c>
       <c r="F23">
-        <v>1.038206537189482</v>
+        <v>1.067573979459658</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057078072725817</v>
+        <v>1.051693672811919</v>
       </c>
       <c r="J23">
-        <v>1.04043300455569</v>
+        <v>1.055547785881644</v>
       </c>
       <c r="K23">
-        <v>1.048987973180577</v>
+        <v>1.061379257435859</v>
       </c>
       <c r="L23">
-        <v>1.041991234433972</v>
+        <v>1.060034071387828</v>
       </c>
       <c r="M23">
-        <v>1.052761107132745</v>
+        <v>1.071099085670718</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017692000780395</v>
+        <v>1.050259501752225</v>
       </c>
       <c r="D24">
-        <v>1.039724917283325</v>
+        <v>1.05888211788105</v>
       </c>
       <c r="E24">
-        <v>1.032834920929575</v>
+        <v>1.057616452012681</v>
       </c>
       <c r="F24">
-        <v>1.044150857229578</v>
+        <v>1.068788769927947</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059706072689728</v>
+        <v>1.052102634997599</v>
       </c>
       <c r="J24">
-        <v>1.044525618538149</v>
+        <v>1.056354668672157</v>
       </c>
       <c r="K24">
-        <v>1.053088572545364</v>
+        <v>1.062174223787703</v>
       </c>
       <c r="L24">
-        <v>1.046308952444591</v>
+        <v>1.060912773055494</v>
       </c>
       <c r="M24">
-        <v>1.057444593114967</v>
+        <v>1.072048261097251</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.025391244911434</v>
+        <v>1.051792717642588</v>
       </c>
       <c r="D25">
-        <v>1.045734800353848</v>
+        <v>1.06011810284193</v>
       </c>
       <c r="E25">
-        <v>1.03911923501447</v>
+        <v>1.058952128357274</v>
       </c>
       <c r="F25">
-        <v>1.05082583747728</v>
+        <v>1.070202705485457</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062605990617838</v>
+        <v>1.052572855841491</v>
       </c>
       <c r="J25">
-        <v>1.04909329965109</v>
+        <v>1.057290922414745</v>
       </c>
       <c r="K25">
-        <v>1.057662329398194</v>
+        <v>1.063096118511559</v>
       </c>
       <c r="L25">
-        <v>1.051139177283498</v>
+        <v>1.061933631584943</v>
       </c>
       <c r="M25">
-        <v>1.062683247467035</v>
+        <v>1.073150902049936</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053018007093146</v>
+        <v>1.031318127025095</v>
       </c>
       <c r="D2">
-        <v>1.061105909166578</v>
+        <v>1.05037250416935</v>
       </c>
       <c r="E2">
-        <v>1.060020846678676</v>
+        <v>1.0439784623208</v>
       </c>
       <c r="F2">
-        <v>1.071333808338326</v>
+        <v>1.055984298586014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052944360494309</v>
+        <v>1.064805619282071</v>
       </c>
       <c r="J2">
-        <v>1.05803755917594</v>
+        <v>1.052600831561292</v>
       </c>
       <c r="K2">
-        <v>1.063830872483262</v>
+        <v>1.061171994306603</v>
       </c>
       <c r="L2">
-        <v>1.062748762451211</v>
+        <v>1.054857309954522</v>
       </c>
       <c r="M2">
-        <v>1.074031259345916</v>
+        <v>1.066715123922077</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053909042993574</v>
+        <v>1.035506461412788</v>
       </c>
       <c r="D3">
-        <v>1.061824267095554</v>
+        <v>1.053655466641163</v>
       </c>
       <c r="E3">
-        <v>1.060798764278584</v>
+        <v>1.047423992466377</v>
       </c>
       <c r="F3">
-        <v>1.072157001239556</v>
+        <v>1.059640401817809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053212037405383</v>
+        <v>1.06634038177694</v>
       </c>
       <c r="J3">
-        <v>1.058579594282444</v>
+        <v>1.055073856254455</v>
       </c>
       <c r="K3">
-        <v>1.064364029088813</v>
+        <v>1.063644932842791</v>
       </c>
       <c r="L3">
-        <v>1.063341115819466</v>
+        <v>1.057484007964592</v>
       </c>
       <c r="M3">
-        <v>1.074670969082837</v>
+        <v>1.069563070724931</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054486227100928</v>
+        <v>1.038166090809248</v>
       </c>
       <c r="D4">
-        <v>1.062289602363471</v>
+        <v>1.055742515982161</v>
       </c>
       <c r="E4">
-        <v>1.061303013420158</v>
+        <v>1.049617090673299</v>
       </c>
       <c r="F4">
-        <v>1.07269053622579</v>
+        <v>1.06196680065389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053384280490474</v>
+        <v>1.067305650351625</v>
       </c>
       <c r="J4">
-        <v>1.058930278682203</v>
+        <v>1.056641446121002</v>
       </c>
       <c r="K4">
-        <v>1.064708852198147</v>
+        <v>1.065211692077077</v>
       </c>
       <c r="L4">
-        <v>1.063724629630746</v>
+        <v>1.059151406911169</v>
       </c>
       <c r="M4">
-        <v>1.075085123189501</v>
+        <v>1.071370725496827</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054729023267185</v>
+        <v>1.039272495939002</v>
       </c>
       <c r="D5">
-        <v>1.062485349629588</v>
+        <v>1.05661124991628</v>
       </c>
       <c r="E5">
-        <v>1.061515209761781</v>
+        <v>1.050530621194341</v>
       </c>
       <c r="F5">
-        <v>1.072915041796815</v>
+        <v>1.062935683850905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053456460439743</v>
+        <v>1.067704932381069</v>
       </c>
       <c r="J5">
-        <v>1.05907769354267</v>
+        <v>1.057292862339815</v>
       </c>
       <c r="K5">
-        <v>1.064853775072621</v>
+        <v>1.065862571019007</v>
       </c>
       <c r="L5">
-        <v>1.063885910519064</v>
+        <v>1.059844875061563</v>
       </c>
       <c r="M5">
-        <v>1.075259284557543</v>
+        <v>1.072122479153529</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054769798445487</v>
+        <v>1.039457590901953</v>
       </c>
       <c r="D6">
-        <v>1.062518223463274</v>
+        <v>1.056756613469124</v>
       </c>
       <c r="E6">
-        <v>1.06155085072549</v>
+        <v>1.050683519063054</v>
       </c>
       <c r="F6">
-        <v>1.072952749383255</v>
+        <v>1.063097835972023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053468566199314</v>
+        <v>1.067771595520709</v>
       </c>
       <c r="J6">
-        <v>1.059102444356297</v>
+        <v>1.057401798378437</v>
       </c>
       <c r="K6">
-        <v>1.064878105833176</v>
+        <v>1.065971405745356</v>
       </c>
       <c r="L6">
-        <v>1.063912993280928</v>
+        <v>1.059960877300812</v>
       </c>
       <c r="M6">
-        <v>1.075288529964186</v>
+        <v>1.072248228531148</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054489470775632</v>
+        <v>1.038180920132502</v>
       </c>
       <c r="D7">
-        <v>1.062292217477373</v>
+        <v>1.05575415775057</v>
       </c>
       <c r="E7">
-        <v>1.061305847975071</v>
+        <v>1.049629330165346</v>
       </c>
       <c r="F7">
-        <v>1.072693535267298</v>
+        <v>1.061979782443836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05338524587132</v>
+        <v>1.067311010997122</v>
       </c>
       <c r="J7">
-        <v>1.058932248498867</v>
+        <v>1.056650179959744</v>
       </c>
       <c r="K7">
-        <v>1.064710788826469</v>
+        <v>1.065220419478961</v>
       </c>
       <c r="L7">
-        <v>1.063726784472503</v>
+        <v>1.059160702283505</v>
       </c>
       <c r="M7">
-        <v>1.075087450143756</v>
+        <v>1.071380802323984</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053319006685156</v>
+        <v>1.032744290067131</v>
       </c>
       <c r="D8">
-        <v>1.061348575047739</v>
+        <v>1.051489866202785</v>
       </c>
       <c r="E8">
-        <v>1.060283563403291</v>
+        <v>1.045150592703712</v>
       </c>
       <c r="F8">
-        <v>1.071611828152147</v>
+        <v>1.057228217355192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053035021824434</v>
+        <v>1.065330150033185</v>
       </c>
       <c r="J8">
-        <v>1.058220751789017</v>
+        <v>1.053443486772129</v>
       </c>
       <c r="K8">
-        <v>1.064011088614155</v>
+        <v>1.062014779250775</v>
       </c>
       <c r="L8">
-        <v>1.062948904347877</v>
+        <v>1.055751824589266</v>
       </c>
       <c r="M8">
-        <v>1.074247405984984</v>
+        <v>1.067685023532658</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051261346774266</v>
+        <v>1.022759155151734</v>
       </c>
       <c r="D9">
-        <v>1.059689734649113</v>
+        <v>1.043678335747689</v>
       </c>
       <c r="E9">
-        <v>1.058489017726863</v>
+        <v>1.036967345474433</v>
       </c>
       <c r="F9">
-        <v>1.069712496700278</v>
+        <v>1.048540627652342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052410551353993</v>
+        <v>1.061619676017396</v>
       </c>
       <c r="J9">
-        <v>1.056966686436869</v>
+        <v>1.047533057097191</v>
       </c>
       <c r="K9">
-        <v>1.062776921874709</v>
+        <v>1.056100393754637</v>
       </c>
       <c r="L9">
-        <v>1.061579937416452</v>
+        <v>1.049487831854588</v>
       </c>
       <c r="M9">
-        <v>1.072768884507635</v>
+        <v>1.060892368691736</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049892921084038</v>
+        <v>1.015803000497577</v>
       </c>
       <c r="D10">
-        <v>1.058586616465713</v>
+        <v>1.038253031149502</v>
       </c>
       <c r="E10">
-        <v>1.057297362969619</v>
+        <v>1.031297797687103</v>
       </c>
       <c r="F10">
-        <v>1.068450938233449</v>
+        <v>1.042517580393247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051989355970345</v>
+        <v>1.058988052801635</v>
       </c>
       <c r="J10">
-        <v>1.056130503079364</v>
+        <v>1.043403357543977</v>
       </c>
       <c r="K10">
-        <v>1.061953410325995</v>
+        <v>1.051964335881272</v>
       </c>
       <c r="L10">
-        <v>1.060668555365912</v>
+        <v>1.045124054879598</v>
       </c>
       <c r="M10">
-        <v>1.07178446386943</v>
+        <v>1.056159376987651</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049301190159279</v>
+        <v>1.012713418509442</v>
       </c>
       <c r="D11">
-        <v>1.05810963362659</v>
+        <v>1.035847967655354</v>
       </c>
       <c r="E11">
-        <v>1.056782501980701</v>
+        <v>1.028787685019586</v>
       </c>
       <c r="F11">
-        <v>1.067905798036585</v>
+        <v>1.039849964445084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051805825725086</v>
+        <v>1.057808643535115</v>
       </c>
       <c r="J11">
-        <v>1.055768408735586</v>
+        <v>1.0415667044679</v>
       </c>
       <c r="K11">
-        <v>1.061596662851529</v>
+        <v>1.050124093011737</v>
       </c>
       <c r="L11">
-        <v>1.06027423340318</v>
+        <v>1.04318638846037</v>
       </c>
       <c r="M11">
-        <v>1.071358516317762</v>
+        <v>1.054057563188867</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049081517574641</v>
+        <v>1.011553572606924</v>
       </c>
       <c r="D12">
-        <v>1.057932564024835</v>
+        <v>1.034945841286243</v>
       </c>
       <c r="E12">
-        <v>1.05659143172121</v>
+        <v>1.027846633173186</v>
       </c>
       <c r="F12">
-        <v>1.067703479233458</v>
+        <v>1.038849711741086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051737482441218</v>
+        <v>1.057364343499374</v>
       </c>
       <c r="J12">
-        <v>1.055633908785934</v>
+        <v>1.040876887445124</v>
       </c>
       <c r="K12">
-        <v>1.061464127974671</v>
+        <v>1.049432821195771</v>
       </c>
       <c r="L12">
-        <v>1.06012781298416</v>
+        <v>1.042459098660761</v>
       </c>
       <c r="M12">
-        <v>1.07120034895368</v>
+        <v>1.053268632705374</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049128632516925</v>
+        <v>1.011802927164064</v>
       </c>
       <c r="D13">
-        <v>1.057970541364264</v>
+        <v>1.035139754140839</v>
       </c>
       <c r="E13">
-        <v>1.05663240912727</v>
+        <v>1.028048891602887</v>
       </c>
       <c r="F13">
-        <v>1.067746869556939</v>
+        <v>1.039064701015731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051752150077551</v>
+        <v>1.057459932293751</v>
       </c>
       <c r="J13">
-        <v>1.055662759551883</v>
+        <v>1.041025204925947</v>
       </c>
       <c r="K13">
-        <v>1.061492558174879</v>
+        <v>1.049581456154115</v>
       </c>
       <c r="L13">
-        <v>1.060159218452737</v>
+        <v>1.042615452061238</v>
       </c>
       <c r="M13">
-        <v>1.071234274170619</v>
+        <v>1.053438238964218</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049283029444817</v>
+        <v>1.012617798475943</v>
       </c>
       <c r="D14">
-        <v>1.058094994885749</v>
+        <v>1.035773578996629</v>
       </c>
       <c r="E14">
-        <v>1.056766704533803</v>
+        <v>1.028710076914454</v>
       </c>
       <c r="F14">
-        <v>1.0678890708117</v>
+        <v>1.039767477183872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051800179951751</v>
+        <v>1.057772045660824</v>
       </c>
       <c r="J14">
-        <v>1.05575729096122</v>
+        <v>1.04150984098629</v>
       </c>
       <c r="K14">
-        <v>1.061585707938605</v>
+        <v>1.050067111726368</v>
       </c>
       <c r="L14">
-        <v>1.060262129252137</v>
+        <v>1.043126426507218</v>
       </c>
       <c r="M14">
-        <v>1.071345441155684</v>
+        <v>1.053992519806001</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049378174781255</v>
+        <v>1.013118227686941</v>
       </c>
       <c r="D15">
-        <v>1.058171688515695</v>
+        <v>1.03616292425163</v>
       </c>
       <c r="E15">
-        <v>1.056849471215075</v>
+        <v>1.029116291991383</v>
       </c>
       <c r="F15">
-        <v>1.067976708350671</v>
+        <v>1.040199224434378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051829749976759</v>
+        <v>1.057963518646205</v>
       </c>
       <c r="J15">
-        <v>1.055815534655861</v>
+        <v>1.041807423953986</v>
       </c>
       <c r="K15">
-        <v>1.061643097575772</v>
+        <v>1.050365306899886</v>
       </c>
       <c r="L15">
-        <v>1.0603255424353</v>
+        <v>1.043440243687469</v>
       </c>
       <c r="M15">
-        <v>1.071413941278208</v>
+        <v>1.054332930005023</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049932209432676</v>
+        <v>1.016006362993279</v>
       </c>
       <c r="D16">
-        <v>1.058618286605096</v>
+        <v>1.038411437835225</v>
       </c>
       <c r="E16">
-        <v>1.057331556626968</v>
+        <v>1.031463190070284</v>
       </c>
       <c r="F16">
-        <v>1.068487141208185</v>
+        <v>1.042693329715586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052001512108056</v>
+        <v>1.059065467162709</v>
       </c>
       <c r="J16">
-        <v>1.056154533742001</v>
+        <v>1.043524202094174</v>
       </c>
       <c r="K16">
-        <v>1.061977083187496</v>
+        <v>1.052085401406744</v>
       </c>
       <c r="L16">
-        <v>1.060694731916308</v>
+        <v>1.045251610290552</v>
       </c>
       <c r="M16">
-        <v>1.071812739328616</v>
+        <v>1.056297734000616</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050279957673055</v>
+        <v>1.017796853614948</v>
       </c>
       <c r="D17">
-        <v>1.058898607607761</v>
+        <v>1.039806648261344</v>
       </c>
       <c r="E17">
-        <v>1.057634260749678</v>
+        <v>1.032920296123259</v>
       </c>
       <c r="F17">
-        <v>1.068807624189348</v>
+        <v>1.044241566285858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052108946650097</v>
+        <v>1.059745856716767</v>
       </c>
       <c r="J17">
-        <v>1.056367174043776</v>
+        <v>1.044587895505095</v>
       </c>
       <c r="K17">
-        <v>1.062186541198804</v>
+        <v>1.053150954024772</v>
       </c>
       <c r="L17">
-        <v>1.060926399349553</v>
+        <v>1.046374726056876</v>
       </c>
       <c r="M17">
-        <v>1.072062979678403</v>
+        <v>1.057515934037331</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050482871048108</v>
+        <v>1.01883377864406</v>
       </c>
       <c r="D18">
-        <v>1.059062179081822</v>
+        <v>1.040615087335746</v>
       </c>
       <c r="E18">
-        <v>1.057810932180458</v>
+        <v>1.033764907203973</v>
       </c>
       <c r="F18">
-        <v>1.068994664715341</v>
+        <v>1.045138906446105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052171500403442</v>
+        <v>1.060138882341817</v>
       </c>
       <c r="J18">
-        <v>1.056491201383666</v>
+        <v>1.045203676290581</v>
       </c>
       <c r="K18">
-        <v>1.06230869884035</v>
+        <v>1.053767738224034</v>
       </c>
       <c r="L18">
-        <v>1.061061557101785</v>
+        <v>1.04702520030202</v>
       </c>
       <c r="M18">
-        <v>1.072208970748848</v>
+        <v>1.058221458744171</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050552072401511</v>
+        <v>1.019186099038005</v>
       </c>
       <c r="D19">
-        <v>1.059117963696432</v>
+        <v>1.040889845726725</v>
       </c>
       <c r="E19">
-        <v>1.057871191047818</v>
+        <v>1.03405201143343</v>
       </c>
       <c r="F19">
-        <v>1.069058459002381</v>
+        <v>1.045443918607239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052192810766175</v>
+        <v>1.060272250073259</v>
       </c>
       <c r="J19">
-        <v>1.056533491099186</v>
+        <v>1.045412861722004</v>
       </c>
       <c r="K19">
-        <v>1.062350348741722</v>
+        <v>1.053977251924979</v>
       </c>
       <c r="L19">
-        <v>1.06110764745922</v>
+        <v>1.047246221080741</v>
       </c>
       <c r="M19">
-        <v>1.072258754992814</v>
+        <v>1.058461181453309</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050242639529398</v>
+        <v>1.017605524402482</v>
       </c>
       <c r="D20">
-        <v>1.058868525084009</v>
+        <v>1.039657512873545</v>
       </c>
       <c r="E20">
-        <v>1.057601772150455</v>
+        <v>1.032764512834702</v>
       </c>
       <c r="F20">
-        <v>1.068773228191047</v>
+        <v>1.044076049814874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052097431415872</v>
+        <v>1.059673255486187</v>
       </c>
       <c r="J20">
-        <v>1.056344359965349</v>
+        <v>1.04447425486795</v>
       </c>
       <c r="K20">
-        <v>1.062164069948277</v>
+        <v>1.053037122263797</v>
       </c>
       <c r="L20">
-        <v>1.060901540507531</v>
+        <v>1.046254706533865</v>
       </c>
       <c r="M20">
-        <v>1.072036128132173</v>
+        <v>1.057385755529279</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049237560000839</v>
+        <v>1.012378181934301</v>
       </c>
       <c r="D21">
-        <v>1.058058343566846</v>
+        <v>1.035587178914878</v>
       </c>
       <c r="E21">
-        <v>1.056727153120657</v>
+        <v>1.028515617353851</v>
       </c>
       <c r="F21">
-        <v>1.067847191364069</v>
+        <v>1.039560789652709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051786041092141</v>
+        <v>1.057680309454808</v>
       </c>
       <c r="J21">
-        <v>1.055729453862288</v>
+        <v>1.041367340281581</v>
       </c>
       <c r="K21">
-        <v>1.061558278278909</v>
+        <v>1.049924314115052</v>
       </c>
       <c r="L21">
-        <v>1.060231823241971</v>
+        <v>1.042976168505938</v>
       </c>
       <c r="M21">
-        <v>1.071312703897976</v>
+        <v>1.053829527842101</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048606336826702</v>
+        <v>1.00902042120422</v>
       </c>
       <c r="D22">
-        <v>1.057549547423537</v>
+        <v>1.032977000011654</v>
       </c>
       <c r="E22">
-        <v>1.056178241639776</v>
+        <v>1.025793709746228</v>
       </c>
       <c r="F22">
-        <v>1.067265942843984</v>
+        <v>1.036667358061359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051589263004012</v>
+        <v>1.056391188359265</v>
       </c>
       <c r="J22">
-        <v>1.055342827097657</v>
+        <v>1.039369741837752</v>
       </c>
       <c r="K22">
-        <v>1.061177260692187</v>
+        <v>1.04792231029251</v>
       </c>
       <c r="L22">
-        <v>1.059811025630284</v>
+        <v>1.040870939979512</v>
       </c>
       <c r="M22">
-        <v>1.070858139837645</v>
+        <v>1.051545819550017</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.048940892361828</v>
+        <v>1.010807382489746</v>
       </c>
       <c r="D23">
-        <v>1.05781921271404</v>
+        <v>1.034365673844267</v>
       </c>
       <c r="E23">
-        <v>1.056469134984968</v>
+        <v>1.027241566132345</v>
       </c>
       <c r="F23">
-        <v>1.067573979459658</v>
+        <v>1.038206537189482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051693672811919</v>
+        <v>1.057078072725816</v>
       </c>
       <c r="J23">
-        <v>1.055547785881644</v>
+        <v>1.04043300455569</v>
       </c>
       <c r="K23">
-        <v>1.061379257435859</v>
+        <v>1.048987973180576</v>
       </c>
       <c r="L23">
-        <v>1.060034071387828</v>
+        <v>1.041991234433971</v>
       </c>
       <c r="M23">
-        <v>1.071099085670718</v>
+        <v>1.052761107132744</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050259501752225</v>
+        <v>1.017692000780395</v>
       </c>
       <c r="D24">
-        <v>1.05888211788105</v>
+        <v>1.039724917283325</v>
       </c>
       <c r="E24">
-        <v>1.057616452012681</v>
+        <v>1.032834920929575</v>
       </c>
       <c r="F24">
-        <v>1.068788769927947</v>
+        <v>1.044150857229578</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052102634997599</v>
+        <v>1.059706072689728</v>
       </c>
       <c r="J24">
-        <v>1.056354668672157</v>
+        <v>1.04452561853815</v>
       </c>
       <c r="K24">
-        <v>1.062174223787703</v>
+        <v>1.053088572545364</v>
       </c>
       <c r="L24">
-        <v>1.060912773055494</v>
+        <v>1.046308952444591</v>
       </c>
       <c r="M24">
-        <v>1.072048261097251</v>
+        <v>1.057444593114967</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051792717642588</v>
+        <v>1.025391244911433</v>
       </c>
       <c r="D25">
-        <v>1.06011810284193</v>
+        <v>1.045734800353847</v>
       </c>
       <c r="E25">
-        <v>1.058952128357274</v>
+        <v>1.03911923501447</v>
       </c>
       <c r="F25">
-        <v>1.070202705485457</v>
+        <v>1.050825837477279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052572855841491</v>
+        <v>1.062605990617838</v>
       </c>
       <c r="J25">
-        <v>1.057290922414745</v>
+        <v>1.04909329965109</v>
       </c>
       <c r="K25">
-        <v>1.063096118511559</v>
+        <v>1.057662329398194</v>
       </c>
       <c r="L25">
-        <v>1.061933631584943</v>
+        <v>1.051139177283498</v>
       </c>
       <c r="M25">
-        <v>1.073150902049936</v>
+        <v>1.062683247467035</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031318127025095</v>
+        <v>0.9974120835148964</v>
       </c>
       <c r="D2">
-        <v>1.05037250416935</v>
+        <v>1.019541917267765</v>
       </c>
       <c r="E2">
-        <v>1.0439784623208</v>
+        <v>1.004219350186645</v>
       </c>
       <c r="F2">
-        <v>1.055984298586014</v>
+        <v>1.024752394825711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064805619282071</v>
+        <v>1.047439518557671</v>
       </c>
       <c r="J2">
-        <v>1.052600831561292</v>
+        <v>1.019670475202888</v>
       </c>
       <c r="K2">
-        <v>1.061171994306603</v>
+        <v>1.0307355533277</v>
       </c>
       <c r="L2">
-        <v>1.054857309954522</v>
+        <v>1.015620214082506</v>
       </c>
       <c r="M2">
-        <v>1.066715123922077</v>
+        <v>1.035877332377985</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036966883697594</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032802887098246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035506461412788</v>
+        <v>1.001319161253249</v>
       </c>
       <c r="D3">
-        <v>1.053655466641163</v>
+        <v>1.022103411084217</v>
       </c>
       <c r="E3">
-        <v>1.047423992466377</v>
+        <v>1.007292795262372</v>
       </c>
       <c r="F3">
-        <v>1.059640401817809</v>
+        <v>1.027559658650631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06634038177694</v>
+        <v>1.04830447251988</v>
       </c>
       <c r="J3">
-        <v>1.055073856254455</v>
+        <v>1.021773929088102</v>
       </c>
       <c r="K3">
-        <v>1.063644932842791</v>
+        <v>1.032461075207119</v>
       </c>
       <c r="L3">
-        <v>1.057484007964592</v>
+        <v>1.017833206130604</v>
       </c>
       <c r="M3">
-        <v>1.069563070724931</v>
+        <v>1.037851646010612</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038529426560194</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034020315283636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038166090809248</v>
+        <v>1.003800896267979</v>
       </c>
       <c r="D4">
-        <v>1.055742515982161</v>
+        <v>1.023732233497763</v>
       </c>
       <c r="E4">
-        <v>1.049617090673299</v>
+        <v>1.009251012105012</v>
       </c>
       <c r="F4">
-        <v>1.06196680065389</v>
+        <v>1.029348990930987</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067305650351625</v>
+        <v>1.048840609837876</v>
       </c>
       <c r="J4">
-        <v>1.056641446121002</v>
+        <v>1.02310787193695</v>
       </c>
       <c r="K4">
-        <v>1.065211692077077</v>
+        <v>1.033552426515178</v>
       </c>
       <c r="L4">
-        <v>1.059151406911169</v>
+        <v>1.019239053184762</v>
       </c>
       <c r="M4">
-        <v>1.071370725496827</v>
+        <v>1.039105647589555</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039521886767236</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034792908322272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039272495939002</v>
+        <v>1.00483641540053</v>
       </c>
       <c r="D5">
-        <v>1.05661124991628</v>
+        <v>1.024414127392314</v>
       </c>
       <c r="E5">
-        <v>1.050530621194341</v>
+        <v>1.010069894658249</v>
       </c>
       <c r="F5">
-        <v>1.062935683850905</v>
+        <v>1.030096158229645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067704932381069</v>
+        <v>1.049062323446295</v>
       </c>
       <c r="J5">
-        <v>1.057292862339815</v>
+        <v>1.023665221893994</v>
       </c>
       <c r="K5">
-        <v>1.065862571019007</v>
+        <v>1.034009117022858</v>
       </c>
       <c r="L5">
-        <v>1.059844875061563</v>
+        <v>1.019826694473891</v>
       </c>
       <c r="M5">
-        <v>1.072122479153529</v>
+        <v>1.039628582271589</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039935754949745</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035123049543369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039457590901953</v>
+        <v>1.005013268911037</v>
       </c>
       <c r="D6">
-        <v>1.056756613469124</v>
+        <v>1.024532884390163</v>
       </c>
       <c r="E6">
-        <v>1.050683519063054</v>
+        <v>1.010210315607295</v>
       </c>
       <c r="F6">
-        <v>1.063097835972023</v>
+        <v>1.030222780678676</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067771595520709</v>
+        <v>1.049101512819172</v>
       </c>
       <c r="J6">
-        <v>1.057401798378437</v>
+        <v>1.02376195605273</v>
       </c>
       <c r="K6">
-        <v>1.065971405745356</v>
+        <v>1.034090055681948</v>
       </c>
       <c r="L6">
-        <v>1.059960877300812</v>
+        <v>1.019928308722673</v>
       </c>
       <c r="M6">
-        <v>1.072248228531148</v>
+        <v>1.039717586261304</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040006195691808</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035189082523821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038180920132502</v>
+        <v>1.003824448455138</v>
       </c>
       <c r="D7">
-        <v>1.05575415775057</v>
+        <v>1.023753805724744</v>
       </c>
       <c r="E7">
-        <v>1.049629330165346</v>
+        <v>1.009270942324393</v>
       </c>
       <c r="F7">
-        <v>1.061979782443836</v>
+        <v>1.029363105897106</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067311010997122</v>
+        <v>1.04884970160359</v>
       </c>
       <c r="J7">
-        <v>1.056650179959744</v>
+        <v>1.023124772750084</v>
       </c>
       <c r="K7">
-        <v>1.065220419478961</v>
+        <v>1.033570844924594</v>
       </c>
       <c r="L7">
-        <v>1.059160702283505</v>
+        <v>1.019255783975801</v>
       </c>
       <c r="M7">
-        <v>1.071380802323984</v>
+        <v>1.039116716990387</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039530647467668</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034826178325008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032744290067131</v>
+        <v>0.9987542789369186</v>
       </c>
       <c r="D8">
-        <v>1.051489866202785</v>
+        <v>1.020428823546684</v>
       </c>
       <c r="E8">
-        <v>1.045150592703712</v>
+        <v>1.005275606089072</v>
       </c>
       <c r="F8">
-        <v>1.057228217355192</v>
+        <v>1.025711867275683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065330150033185</v>
+        <v>1.047744204047483</v>
       </c>
       <c r="J8">
-        <v>1.053443486772129</v>
+        <v>1.02039867872794</v>
       </c>
       <c r="K8">
-        <v>1.062014779250775</v>
+        <v>1.03133900491635</v>
       </c>
       <c r="L8">
-        <v>1.055751824589266</v>
+        <v>1.016384587019937</v>
       </c>
       <c r="M8">
-        <v>1.067685023532658</v>
+        <v>1.036554463834399</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037502790287152</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033252662696246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022759155151734</v>
+        <v>0.9894331466451275</v>
       </c>
       <c r="D9">
-        <v>1.043678335747689</v>
+        <v>1.014323166347342</v>
       </c>
       <c r="E9">
-        <v>1.036967345474433</v>
+        <v>0.997977590833216</v>
       </c>
       <c r="F9">
-        <v>1.048540627652342</v>
+        <v>1.019055613795667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061619676017396</v>
+        <v>1.045602639185944</v>
       </c>
       <c r="J9">
-        <v>1.047533057097191</v>
+        <v>1.015364646338992</v>
       </c>
       <c r="K9">
-        <v>1.056100393754637</v>
+        <v>1.027188057171394</v>
       </c>
       <c r="L9">
-        <v>1.049487831854588</v>
+        <v>1.011103565657251</v>
       </c>
       <c r="M9">
-        <v>1.060892368691736</v>
+        <v>1.031846911344008</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033777052766693</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030314417122479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015803000497577</v>
+        <v>0.9830084457280303</v>
       </c>
       <c r="D10">
-        <v>1.038253031149502</v>
+        <v>1.010134659968323</v>
       </c>
       <c r="E10">
-        <v>1.031297797687103</v>
+        <v>0.9929916223741841</v>
       </c>
       <c r="F10">
-        <v>1.042517580393247</v>
+        <v>1.014679065067777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058988052801635</v>
+        <v>1.044085397804667</v>
       </c>
       <c r="J10">
-        <v>1.043403357543977</v>
+        <v>1.011912817158617</v>
       </c>
       <c r="K10">
-        <v>1.051964335881272</v>
+        <v>1.024323309624865</v>
       </c>
       <c r="L10">
-        <v>1.045124054879598</v>
+        <v>1.007488578782577</v>
       </c>
       <c r="M10">
-        <v>1.056159376987651</v>
+        <v>1.028788247661638</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031408181995614</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02830578910523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012713418509442</v>
+        <v>0.9806261765366207</v>
       </c>
       <c r="D11">
-        <v>1.035847967655354</v>
+        <v>1.008612961232856</v>
       </c>
       <c r="E11">
-        <v>1.028787685019586</v>
+        <v>0.9912174487858801</v>
       </c>
       <c r="F11">
-        <v>1.039849964445084</v>
+        <v>1.014438466815284</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057808643535115</v>
+        <v>1.043692382190859</v>
       </c>
       <c r="J11">
-        <v>1.0415667044679</v>
+        <v>1.010827745667462</v>
       </c>
       <c r="K11">
-        <v>1.050124093011737</v>
+        <v>1.023374257293062</v>
       </c>
       <c r="L11">
-        <v>1.04318638846037</v>
+        <v>1.006306913739363</v>
       </c>
       <c r="M11">
-        <v>1.054057563188867</v>
+        <v>1.029093136542817</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032088917828629</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027667919868789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011553572606924</v>
+        <v>0.9798603316521468</v>
       </c>
       <c r="D12">
-        <v>1.034945841286243</v>
+        <v>1.008119673954082</v>
       </c>
       <c r="E12">
-        <v>1.027846633173186</v>
+        <v>0.9906729313164986</v>
       </c>
       <c r="F12">
-        <v>1.038849711741086</v>
+        <v>1.014907247770807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057364343499374</v>
+        <v>1.04362292787552</v>
       </c>
       <c r="J12">
-        <v>1.040876887445124</v>
+        <v>1.010542190377485</v>
       </c>
       <c r="K12">
-        <v>1.049432821195771</v>
+        <v>1.023092949791351</v>
       </c>
       <c r="L12">
-        <v>1.042459098660761</v>
+        <v>1.005981031691693</v>
       </c>
       <c r="M12">
-        <v>1.053268632705374</v>
+        <v>1.02975431479322</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032940280592854</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02746902263393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011802927164064</v>
+        <v>0.9803020167167598</v>
       </c>
       <c r="D13">
-        <v>1.035139754140839</v>
+        <v>1.008401644910368</v>
       </c>
       <c r="E13">
-        <v>1.028048891602887</v>
+        <v>0.9910490431018754</v>
       </c>
       <c r="F13">
-        <v>1.039064701015731</v>
+        <v>1.015979508360762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057459932293751</v>
+        <v>1.043812395668838</v>
       </c>
       <c r="J13">
-        <v>1.041025204925947</v>
+        <v>1.01086830937058</v>
       </c>
       <c r="K13">
-        <v>1.049581456154115</v>
+        <v>1.023326134152905</v>
       </c>
       <c r="L13">
-        <v>1.042615452061238</v>
+        <v>1.006305144306529</v>
       </c>
       <c r="M13">
-        <v>1.053438238964218</v>
+        <v>1.030763810243707</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034016507423502</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027631376988756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012617798475943</v>
+        <v>0.9811534582701563</v>
       </c>
       <c r="D14">
-        <v>1.035773578996629</v>
+        <v>1.008947540366626</v>
       </c>
       <c r="E14">
-        <v>1.028710076914454</v>
+        <v>0.9917251475749496</v>
       </c>
       <c r="F14">
-        <v>1.039767477183872</v>
+        <v>1.01698941698303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057772045660824</v>
+        <v>1.044058835342259</v>
       </c>
       <c r="J14">
-        <v>1.04150984098629</v>
+        <v>1.011368659290684</v>
       </c>
       <c r="K14">
-        <v>1.050067111726368</v>
+        <v>1.023719419266162</v>
       </c>
       <c r="L14">
-        <v>1.043126426507218</v>
+        <v>1.006821997299901</v>
       </c>
       <c r="M14">
-        <v>1.053992519806001</v>
+        <v>1.031614454100852</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034862929476678</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027910886568536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013118227686941</v>
+        <v>0.9816332680470764</v>
       </c>
       <c r="D15">
-        <v>1.03616292425163</v>
+        <v>1.009259154062428</v>
       </c>
       <c r="E15">
-        <v>1.029116291991383</v>
+        <v>0.992099410676421</v>
       </c>
       <c r="F15">
-        <v>1.040199224434378</v>
+        <v>1.017400406297169</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057963518646205</v>
+        <v>1.044182879197352</v>
       </c>
       <c r="J15">
-        <v>1.041807423953986</v>
+        <v>1.011634751676631</v>
       </c>
       <c r="K15">
-        <v>1.050365306899886</v>
+        <v>1.023937574107978</v>
       </c>
       <c r="L15">
-        <v>1.043440243687469</v>
+        <v>1.007099108708426</v>
       </c>
       <c r="M15">
-        <v>1.054332930005023</v>
+        <v>1.031931323453458</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035151046793863</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028071061168841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016006362993279</v>
+        <v>0.9842701139571177</v>
       </c>
       <c r="D16">
-        <v>1.038411437835225</v>
+        <v>1.010982960985045</v>
       </c>
       <c r="E16">
-        <v>1.031463190070284</v>
+        <v>0.9941324394780778</v>
       </c>
       <c r="F16">
-        <v>1.042693329715586</v>
+        <v>1.019098732014634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059065467162709</v>
+        <v>1.044810340263387</v>
       </c>
       <c r="J16">
-        <v>1.043524202094174</v>
+        <v>1.013043195038913</v>
       </c>
       <c r="K16">
-        <v>1.052085401406744</v>
+        <v>1.025120602514397</v>
       </c>
       <c r="L16">
-        <v>1.045251610290552</v>
+        <v>1.008571456963986</v>
       </c>
       <c r="M16">
-        <v>1.056297734000616</v>
+        <v>1.033095816569804</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036032607029893</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.02891071538362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017796853614948</v>
+        <v>0.9858522196748545</v>
       </c>
       <c r="D17">
-        <v>1.039806648261344</v>
+        <v>1.012024060337471</v>
       </c>
       <c r="E17">
-        <v>1.032920296123259</v>
+        <v>0.9953442389423947</v>
       </c>
       <c r="F17">
-        <v>1.044241566285858</v>
+        <v>1.019870988690627</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059745856716767</v>
+        <v>1.045161625566232</v>
       </c>
       <c r="J17">
-        <v>1.044587895505095</v>
+        <v>1.013865146700445</v>
       </c>
       <c r="K17">
-        <v>1.053150954024772</v>
+        <v>1.025824498393392</v>
       </c>
       <c r="L17">
-        <v>1.046374726056876</v>
+        <v>1.009434395951606</v>
       </c>
       <c r="M17">
-        <v>1.057515934037331</v>
+        <v>1.033539352677259</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036253681240043</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029411014820224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01883377864406</v>
+        <v>0.9866494448236768</v>
       </c>
       <c r="D18">
-        <v>1.040615087335746</v>
+        <v>1.012548010676578</v>
       </c>
       <c r="E18">
-        <v>1.033764907203973</v>
+        <v>0.9959352921875082</v>
       </c>
       <c r="F18">
-        <v>1.045138906446105</v>
+        <v>1.019806416134146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060138882341817</v>
+        <v>1.045287559351328</v>
       </c>
       <c r="J18">
-        <v>1.045203676290581</v>
+        <v>1.014226484100151</v>
       </c>
       <c r="K18">
-        <v>1.053767738224034</v>
+        <v>1.026153608111195</v>
       </c>
       <c r="L18">
-        <v>1.04702520030202</v>
+        <v>1.009824558591155</v>
       </c>
       <c r="M18">
-        <v>1.058221458744171</v>
+        <v>1.03329180414854</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035819269523481</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029631966264708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019186099038005</v>
+        <v>0.9867105445352474</v>
       </c>
       <c r="D19">
-        <v>1.040889845726725</v>
+        <v>1.012587121624741</v>
       </c>
       <c r="E19">
-        <v>1.03405201143343</v>
+        <v>0.9959424730302243</v>
       </c>
       <c r="F19">
-        <v>1.045443918607239</v>
+        <v>1.018918957833968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060272250073259</v>
+        <v>1.045196497155138</v>
       </c>
       <c r="J19">
-        <v>1.045412861722004</v>
+        <v>1.01414756145718</v>
       </c>
       <c r="K19">
-        <v>1.053977251924979</v>
+        <v>1.026128667753807</v>
       </c>
       <c r="L19">
-        <v>1.047246221080741</v>
+        <v>1.009766692466385</v>
       </c>
       <c r="M19">
-        <v>1.058461181453309</v>
+        <v>1.032356088645008</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03475213180958</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029620784734445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017605524402482</v>
+        <v>0.9846992927974663</v>
       </c>
       <c r="D20">
-        <v>1.039657512873545</v>
+        <v>1.011249988576005</v>
       </c>
       <c r="E20">
-        <v>1.032764512834702</v>
+        <v>0.9943053106009353</v>
       </c>
       <c r="F20">
-        <v>1.044076049814874</v>
+        <v>1.015829495975058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059673255486187</v>
+        <v>1.044499199361883</v>
       </c>
       <c r="J20">
-        <v>1.04447425486795</v>
+        <v>1.012833044647514</v>
       </c>
       <c r="K20">
-        <v>1.053037122263797</v>
+        <v>1.025097863493648</v>
       </c>
       <c r="L20">
-        <v>1.046254706533865</v>
+        <v>1.008449038852145</v>
       </c>
       <c r="M20">
-        <v>1.057385755529279</v>
+        <v>1.029599598688368</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032039646695345</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02889591066477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012378181934301</v>
+        <v>0.979775485668464</v>
       </c>
       <c r="D21">
-        <v>1.035587178914878</v>
+        <v>1.008036592835603</v>
       </c>
       <c r="E21">
-        <v>1.028515617353851</v>
+        <v>0.9904840202088114</v>
       </c>
       <c r="F21">
-        <v>1.039560789652709</v>
+        <v>1.012221186275566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057680309454808</v>
+        <v>1.04327548623776</v>
       </c>
       <c r="J21">
-        <v>1.041367340281581</v>
+        <v>1.010143816318597</v>
       </c>
       <c r="K21">
-        <v>1.049924314115052</v>
+        <v>1.02286729249149</v>
       </c>
       <c r="L21">
-        <v>1.042976168505938</v>
+        <v>1.005647946624358</v>
       </c>
       <c r="M21">
-        <v>1.053829527842101</v>
+        <v>1.026974665527668</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P21">
+        <v>1.029920949844612</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027322048163519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00902042120422</v>
+        <v>0.9766349597022729</v>
       </c>
       <c r="D22">
-        <v>1.032977000011654</v>
+        <v>1.005987720700369</v>
       </c>
       <c r="E22">
-        <v>1.025793709746228</v>
+        <v>0.9880575808980988</v>
       </c>
       <c r="F22">
-        <v>1.036667358061359</v>
+        <v>1.010019497030382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056391188359265</v>
+        <v>1.04249061397168</v>
       </c>
       <c r="J22">
-        <v>1.039369741837752</v>
+        <v>1.008436060256852</v>
       </c>
       <c r="K22">
-        <v>1.04792231029251</v>
+        <v>1.021441485644786</v>
       </c>
       <c r="L22">
-        <v>1.040870939979512</v>
+        <v>1.0038693907469</v>
       </c>
       <c r="M22">
-        <v>1.051545819550017</v>
+        <v>1.02539504499459</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028670766265859</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026300279304724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010807382489746</v>
+        <v>0.9782975124008653</v>
       </c>
       <c r="D23">
-        <v>1.034365673844267</v>
+        <v>1.007067055020928</v>
       </c>
       <c r="E23">
-        <v>1.027241566132345</v>
+        <v>0.9893398316677948</v>
       </c>
       <c r="F23">
-        <v>1.038206537189482</v>
+        <v>1.011186727296602</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057078072725816</v>
+        <v>1.042904357185474</v>
       </c>
       <c r="J23">
-        <v>1.04043300455569</v>
+        <v>1.009336660038883</v>
       </c>
       <c r="K23">
-        <v>1.048987973180576</v>
+        <v>1.022190201610859</v>
       </c>
       <c r="L23">
-        <v>1.041991234433971</v>
+        <v>1.004807682966113</v>
       </c>
       <c r="M23">
-        <v>1.052761107132744</v>
+        <v>1.026232027403548</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029333192516964</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026819927683846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017692000780395</v>
+        <v>0.9847192881231933</v>
       </c>
       <c r="D24">
-        <v>1.039724917283325</v>
+        <v>1.011252170395184</v>
       </c>
       <c r="E24">
-        <v>1.032834920929575</v>
+        <v>0.9943122583157855</v>
       </c>
       <c r="F24">
-        <v>1.044150857229578</v>
+        <v>1.015710584383419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059706072689728</v>
+        <v>1.044480686963999</v>
       </c>
       <c r="J24">
-        <v>1.04452561853815</v>
+        <v>1.012818515727126</v>
       </c>
       <c r="K24">
-        <v>1.053088572545364</v>
+        <v>1.025084525319074</v>
       </c>
       <c r="L24">
-        <v>1.046308952444591</v>
+        <v>1.008439998777032</v>
       </c>
       <c r="M24">
-        <v>1.057444593114967</v>
+        <v>1.029467309625985</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031893737243769</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028858815773858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025391244911433</v>
+        <v>0.9919043607417827</v>
       </c>
       <c r="D25">
-        <v>1.045734800353847</v>
+        <v>1.015948588758074</v>
       </c>
       <c r="E25">
-        <v>1.03911923501447</v>
+        <v>0.9999086970202875</v>
       </c>
       <c r="F25">
-        <v>1.050825837477279</v>
+        <v>1.020809379902174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062605990617838</v>
+        <v>1.046187850084439</v>
       </c>
       <c r="J25">
-        <v>1.04909329965109</v>
+        <v>1.016707281150715</v>
       </c>
       <c r="K25">
-        <v>1.057662329398194</v>
+        <v>1.028304267366747</v>
       </c>
       <c r="L25">
-        <v>1.051139177283498</v>
+        <v>1.012508430515257</v>
       </c>
       <c r="M25">
-        <v>1.062683247467035</v>
+        <v>1.033093022693635</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034763274972377</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031132488634091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9974120835148964</v>
+        <v>0.9971417589910172</v>
       </c>
       <c r="D2">
-        <v>1.019541917267765</v>
+        <v>1.019140708441726</v>
       </c>
       <c r="E2">
-        <v>1.004219350186645</v>
+        <v>1.003993708807259</v>
       </c>
       <c r="F2">
-        <v>1.024752394825711</v>
+        <v>1.024614020505551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047439518557671</v>
+        <v>1.047237608632247</v>
       </c>
       <c r="J2">
-        <v>1.019670475202888</v>
+        <v>1.019408296940459</v>
       </c>
       <c r="K2">
-        <v>1.0307355533277</v>
+        <v>1.030339670868743</v>
       </c>
       <c r="L2">
-        <v>1.015620214082506</v>
+        <v>1.015397683918201</v>
       </c>
       <c r="M2">
-        <v>1.035877332377985</v>
+        <v>1.035740771161359</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036966883697594</v>
+        <v>1.036858804109394</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032802887098246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032531801634839</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020205596587609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.001319161253249</v>
+        <v>1.000923767654626</v>
       </c>
       <c r="D3">
-        <v>1.022103411084217</v>
+        <v>1.021525717161832</v>
       </c>
       <c r="E3">
-        <v>1.007292795262372</v>
+        <v>1.00695718405442</v>
       </c>
       <c r="F3">
-        <v>1.027559658650631</v>
+        <v>1.027362332755589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04830447251988</v>
+        <v>1.048014452781787</v>
       </c>
       <c r="J3">
-        <v>1.021773929088102</v>
+        <v>1.021389281471133</v>
       </c>
       <c r="K3">
-        <v>1.032461075207119</v>
+        <v>1.031890385997078</v>
       </c>
       <c r="L3">
-        <v>1.017833206130604</v>
+        <v>1.017501813674193</v>
       </c>
       <c r="M3">
-        <v>1.037851646010612</v>
+        <v>1.037656680243543</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038529426560194</v>
+        <v>1.038375123787633</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034020315283636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033625344898281</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020516857609393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003800896267979</v>
+        <v>1.003326957092795</v>
       </c>
       <c r="D4">
-        <v>1.023732233497763</v>
+        <v>1.023043066597614</v>
       </c>
       <c r="E4">
-        <v>1.009251012105012</v>
+        <v>1.008846258955683</v>
       </c>
       <c r="F4">
-        <v>1.029348990930987</v>
+        <v>1.029114591082947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048840609837876</v>
+        <v>1.048494833308201</v>
       </c>
       <c r="J4">
-        <v>1.02310787193695</v>
+        <v>1.022645940150085</v>
       </c>
       <c r="K4">
-        <v>1.033552426515178</v>
+        <v>1.032871114695323</v>
       </c>
       <c r="L4">
-        <v>1.019239053184762</v>
+        <v>1.018839077135267</v>
       </c>
       <c r="M4">
-        <v>1.039105647589555</v>
+        <v>1.038873882174887</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039521886767236</v>
+        <v>1.039338459708167</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034792908322272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034319798192485</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020711179616107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00483641540053</v>
+        <v>1.004329929036407</v>
       </c>
       <c r="D5">
-        <v>1.024414127392314</v>
+        <v>1.023678672110026</v>
       </c>
       <c r="E5">
-        <v>1.010069894658249</v>
+        <v>1.009636463206286</v>
       </c>
       <c r="F5">
-        <v>1.030096158229645</v>
+        <v>1.029846391749068</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049062323446295</v>
+        <v>1.048693370109814</v>
       </c>
       <c r="J5">
-        <v>1.023665221893994</v>
+        <v>1.023171183347627</v>
       </c>
       <c r="K5">
-        <v>1.034009117022858</v>
+        <v>1.033281822370322</v>
       </c>
       <c r="L5">
-        <v>1.019826694473891</v>
+        <v>1.019398240683387</v>
       </c>
       <c r="M5">
-        <v>1.039628582271589</v>
+        <v>1.03938154818798</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039935754949745</v>
+        <v>1.039740243855942</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035123049543369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034618137734387</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020792365721894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005013268911037</v>
+        <v>1.004501262883881</v>
       </c>
       <c r="D6">
-        <v>1.024532884390163</v>
+        <v>1.02378962746837</v>
       </c>
       <c r="E6">
-        <v>1.010210315607295</v>
+        <v>1.009772004796598</v>
       </c>
       <c r="F6">
-        <v>1.030222780678676</v>
+        <v>1.029970417622628</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049101512819172</v>
+        <v>1.048728652712625</v>
       </c>
       <c r="J6">
-        <v>1.02376195605273</v>
+        <v>1.02326246865675</v>
       </c>
       <c r="K6">
-        <v>1.034090055681948</v>
+        <v>1.033355008359843</v>
       </c>
       <c r="L6">
-        <v>1.019928308722673</v>
+        <v>1.019495008270904</v>
       </c>
       <c r="M6">
-        <v>1.039717586261304</v>
+        <v>1.039467971377992</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040006195691808</v>
+        <v>1.039808642085271</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035189082523821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034679560052552</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02080731232427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003824448455138</v>
+        <v>1.003349828812459</v>
       </c>
       <c r="D7">
-        <v>1.023753805724744</v>
+        <v>1.023063834478836</v>
       </c>
       <c r="E7">
-        <v>1.009270942324393</v>
+        <v>1.008865547052064</v>
       </c>
       <c r="F7">
-        <v>1.029363105897106</v>
+        <v>1.029128413197235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04884970160359</v>
+        <v>1.048503525118176</v>
       </c>
       <c r="J7">
-        <v>1.023124772750084</v>
+        <v>1.022662172586107</v>
       </c>
       <c r="K7">
-        <v>1.033570844924594</v>
+        <v>1.032888734898813</v>
       </c>
       <c r="L7">
-        <v>1.019255783975801</v>
+        <v>1.018855171547269</v>
       </c>
       <c r="M7">
-        <v>1.039116716990387</v>
+        <v>1.038884661047436</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039530647467668</v>
+        <v>1.039346990476813</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034826178325008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03435450845486</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020716050543248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987542789369186</v>
+        <v>0.9984408166422807</v>
       </c>
       <c r="D8">
-        <v>1.020428823546684</v>
+        <v>1.019967129986135</v>
       </c>
       <c r="E8">
-        <v>1.005275606089072</v>
+        <v>1.005011990487816</v>
       </c>
       <c r="F8">
-        <v>1.025711867275683</v>
+        <v>1.025553210120905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047744204047483</v>
+        <v>1.047512121998192</v>
       </c>
       <c r="J8">
-        <v>1.02039867872794</v>
+        <v>1.02009434437215</v>
       </c>
       <c r="K8">
-        <v>1.03133900491635</v>
+        <v>1.030883259306131</v>
       </c>
       <c r="L8">
-        <v>1.016384587019937</v>
+        <v>1.016124496498229</v>
       </c>
       <c r="M8">
-        <v>1.036554463834399</v>
+        <v>1.036397823679285</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037502790287152</v>
+        <v>1.037378819577697</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033252662696246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032941521238657</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020316910727669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9894331466451275</v>
+        <v>0.9894236995147261</v>
       </c>
       <c r="D9">
-        <v>1.014323166347342</v>
+        <v>1.014286095697583</v>
       </c>
       <c r="E9">
-        <v>0.997977590833216</v>
+        <v>0.9979807048565472</v>
       </c>
       <c r="F9">
-        <v>1.019055613795667</v>
+        <v>1.019039928351287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045602639185944</v>
+        <v>1.045581947120235</v>
       </c>
       <c r="J9">
-        <v>1.015364646338992</v>
+        <v>1.015355542899379</v>
       </c>
       <c r="K9">
-        <v>1.027188057171394</v>
+        <v>1.027151566465984</v>
       </c>
       <c r="L9">
-        <v>1.011103565657251</v>
+        <v>1.011106628894467</v>
       </c>
       <c r="M9">
-        <v>1.031846911344008</v>
+        <v>1.031831468378706</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033777052766693</v>
+        <v>1.033764830579562</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030314417122479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030299449974399</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019552072998133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,105 +935,123 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9830084457280303</v>
+        <v>0.9832124414123599</v>
       </c>
       <c r="D10">
-        <v>1.010134659968323</v>
+        <v>1.010392629229838</v>
       </c>
       <c r="E10">
-        <v>0.9929916223741841</v>
+        <v>0.9931807312148001</v>
       </c>
       <c r="F10">
-        <v>1.014679065067777</v>
+        <v>1.01476375739502</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044085397804667</v>
+        <v>1.044211129423095</v>
       </c>
       <c r="J10">
-        <v>1.011912817158617</v>
+        <v>1.012108318273686</v>
       </c>
       <c r="K10">
-        <v>1.024323309624865</v>
+        <v>1.024576743028219</v>
       </c>
       <c r="L10">
-        <v>1.007488578782577</v>
+        <v>1.007674210986653</v>
       </c>
       <c r="M10">
-        <v>1.028788247661638</v>
+        <v>1.028871467736865</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031408181995614</v>
+        <v>1.031474041770074</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02830578910523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028497511730528</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019015709548015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9806261765366207</v>
+        <v>0.9808942067730156</v>
       </c>
       <c r="D11">
-        <v>1.008612961232856</v>
+        <v>1.008969485743116</v>
       </c>
       <c r="E11">
-        <v>0.9912174487858801</v>
+        <v>0.9914583164675642</v>
       </c>
       <c r="F11">
-        <v>1.014438466815284</v>
+        <v>1.014555497535397</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043692382190859</v>
+        <v>1.043867734569637</v>
       </c>
       <c r="J11">
-        <v>1.010827745667462</v>
+        <v>1.011083990220659</v>
       </c>
       <c r="K11">
-        <v>1.023374257293062</v>
+        <v>1.02372421011431</v>
       </c>
       <c r="L11">
-        <v>1.006306913739363</v>
+        <v>1.006543134421751</v>
       </c>
       <c r="M11">
-        <v>1.029093136542817</v>
+        <v>1.029208041529779</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032088917828629</v>
+        <v>1.03217980633893</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027667919868789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027931117365508</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018866074107261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9798603316521468</v>
+        <v>0.9801443562223972</v>
       </c>
       <c r="D12">
-        <v>1.008119673954082</v>
+        <v>1.008505400806345</v>
       </c>
       <c r="E12">
-        <v>0.9906729313164986</v>
+        <v>0.9909247368426956</v>
       </c>
       <c r="F12">
-        <v>1.014907247770807</v>
+        <v>1.01503371031485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04362292787552</v>
+        <v>1.043813323418556</v>
       </c>
       <c r="J12">
-        <v>1.010542190377485</v>
+        <v>1.010813480315486</v>
       </c>
       <c r="K12">
-        <v>1.023092949791351</v>
+        <v>1.023471444957026</v>
       </c>
       <c r="L12">
-        <v>1.005981031691693</v>
+        <v>1.006227894691337</v>
       </c>
       <c r="M12">
-        <v>1.02975431479322</v>
+        <v>1.029878446752258</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032940280592854</v>
+        <v>1.033038433882588</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02746902263393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027752404804189</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018831337065975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9803020167167598</v>
+        <v>0.9805652998526209</v>
       </c>
       <c r="D13">
-        <v>1.008401644910368</v>
+        <v>1.008764265859184</v>
       </c>
       <c r="E13">
-        <v>0.9910490431018754</v>
+        <v>0.9912804587910198</v>
       </c>
       <c r="F13">
-        <v>1.015979508360762</v>
+        <v>1.016098195796821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043812395668838</v>
+        <v>1.043991815683094</v>
       </c>
       <c r="J13">
-        <v>1.01086830937058</v>
+        <v>1.011119846074463</v>
       </c>
       <c r="K13">
-        <v>1.023326134152905</v>
+        <v>1.023681984145227</v>
       </c>
       <c r="L13">
-        <v>1.006305144306529</v>
+        <v>1.006532037381915</v>
       </c>
       <c r="M13">
-        <v>1.030763810243707</v>
+        <v>1.030880323668066</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034016507423502</v>
+        <v>1.034108613248555</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027631376988756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027898501430702</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01888948737564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811534582701563</v>
+        <v>0.9813863415392311</v>
       </c>
       <c r="D14">
-        <v>1.008947540366626</v>
+        <v>1.009270989404625</v>
       </c>
       <c r="E14">
-        <v>0.9917251475749496</v>
+        <v>0.9919288197484493</v>
       </c>
       <c r="F14">
-        <v>1.01698941698303</v>
+        <v>1.017095258797757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044058835342259</v>
+        <v>1.044219110616049</v>
       </c>
       <c r="J14">
-        <v>1.011368659290684</v>
+        <v>1.011591302854501</v>
       </c>
       <c r="K14">
-        <v>1.023719419266162</v>
+        <v>1.024036903380149</v>
       </c>
       <c r="L14">
-        <v>1.006821997299901</v>
+        <v>1.007021739987436</v>
       </c>
       <c r="M14">
-        <v>1.031614454100852</v>
+        <v>1.031718383410988</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034862929476678</v>
+        <v>1.034945076196927</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027910886568536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028151018133916</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018971486688829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9816332680470764</v>
+        <v>0.9818500411510074</v>
       </c>
       <c r="D15">
-        <v>1.009259154062428</v>
+        <v>1.009560838309953</v>
       </c>
       <c r="E15">
-        <v>0.992099410676421</v>
+        <v>0.9922888494233879</v>
       </c>
       <c r="F15">
-        <v>1.017400406297169</v>
+        <v>1.017499046472772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044182879197352</v>
+        <v>1.044332419552606</v>
       </c>
       <c r="J15">
-        <v>1.011634751676631</v>
+        <v>1.011842077990678</v>
       </c>
       <c r="K15">
-        <v>1.023937574107978</v>
+        <v>1.02423373718749</v>
       </c>
       <c r="L15">
-        <v>1.007099108708426</v>
+        <v>1.007284921245472</v>
       </c>
       <c r="M15">
-        <v>1.031931323453458</v>
+        <v>1.032028195270173</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035151046793863</v>
+        <v>1.035227613182758</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028071061168841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028296687668905</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01901457591355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842701139571177</v>
+        <v>0.9843998725657502</v>
       </c>
       <c r="D16">
-        <v>1.010982960985045</v>
+        <v>1.011163209494195</v>
       </c>
       <c r="E16">
-        <v>0.9941324394780778</v>
+        <v>0.9942469528675678</v>
       </c>
       <c r="F16">
-        <v>1.019098732014634</v>
+        <v>1.019156430550769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044810340263387</v>
+        <v>1.044899602345722</v>
       </c>
       <c r="J16">
-        <v>1.013043195038913</v>
+        <v>1.0131675867929</v>
       </c>
       <c r="K16">
-        <v>1.025120602514397</v>
+        <v>1.025297697566536</v>
       </c>
       <c r="L16">
-        <v>1.008571456963986</v>
+        <v>1.008683877368595</v>
       </c>
       <c r="M16">
-        <v>1.033095816569804</v>
+        <v>1.033152526182298</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036032607029893</v>
+        <v>1.036077430955102</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02891071538362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029052449239226</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019237757471662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9858522196748545</v>
+        <v>0.9859308784125717</v>
       </c>
       <c r="D17">
-        <v>1.012024060337471</v>
+        <v>1.012131406805707</v>
       </c>
       <c r="E17">
-        <v>0.9953442389423947</v>
+        <v>0.9954154441533078</v>
       </c>
       <c r="F17">
-        <v>1.019870988690627</v>
+        <v>1.019903809362599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045161625566232</v>
+        <v>1.045214531502846</v>
       </c>
       <c r="J17">
-        <v>1.013865146700445</v>
+        <v>1.013940658743169</v>
       </c>
       <c r="K17">
-        <v>1.025824498393392</v>
+        <v>1.025930020242751</v>
       </c>
       <c r="L17">
-        <v>1.009434395951606</v>
+        <v>1.00950433759409</v>
       </c>
       <c r="M17">
-        <v>1.033539352677259</v>
+        <v>1.03357162643225</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036253681240043</v>
+        <v>1.036279193339928</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029411014820224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02950238714721</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019365970786268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9866494448236768</v>
+        <v>0.9867052255086866</v>
       </c>
       <c r="D18">
-        <v>1.012548010676578</v>
+        <v>1.012619815997625</v>
       </c>
       <c r="E18">
-        <v>0.9959352921875082</v>
+        <v>0.9959884270874968</v>
       </c>
       <c r="F18">
-        <v>1.019806416134146</v>
+        <v>1.019826818277076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045287559351328</v>
+        <v>1.045322475902007</v>
       </c>
       <c r="J18">
-        <v>1.014226484100151</v>
+        <v>1.014280076128261</v>
       </c>
       <c r="K18">
-        <v>1.026153608111195</v>
+        <v>1.026224213359842</v>
       </c>
       <c r="L18">
-        <v>1.009824558591155</v>
+        <v>1.00987676665734</v>
       </c>
       <c r="M18">
-        <v>1.03329180414854</v>
+        <v>1.033311871504345</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035819269523481</v>
+        <v>1.035835135910818</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029631966264708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029697510249985</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019416706957618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9867105445352474</v>
+        <v>0.9867720323928334</v>
       </c>
       <c r="D19">
-        <v>1.012587121624741</v>
+        <v>1.01266101315478</v>
       </c>
       <c r="E19">
-        <v>0.9959424730302243</v>
+        <v>0.9960030295161704</v>
       </c>
       <c r="F19">
-        <v>1.018918957833968</v>
+        <v>1.01893992872507</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045196497155138</v>
+        <v>1.045231921449304</v>
       </c>
       <c r="J19">
-        <v>1.01414756145718</v>
+        <v>1.014206651328201</v>
       </c>
       <c r="K19">
-        <v>1.026128667753807</v>
+        <v>1.026201331076769</v>
       </c>
       <c r="L19">
-        <v>1.009766692466385</v>
+        <v>1.009826198371736</v>
       </c>
       <c r="M19">
-        <v>1.032356088645008</v>
+        <v>1.032376716486601</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03475213180958</v>
+        <v>1.034768446733465</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029620784734445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02968840918959</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019394693345349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9846992927974663</v>
+        <v>0.9848463070667898</v>
       </c>
       <c r="D20">
-        <v>1.011249988576005</v>
+        <v>1.01143030452692</v>
       </c>
       <c r="E20">
-        <v>0.9943053106009353</v>
+        <v>0.9944446422055842</v>
       </c>
       <c r="F20">
-        <v>1.015829495975058</v>
+        <v>1.015887535107993</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044499199361883</v>
+        <v>1.044586441714324</v>
       </c>
       <c r="J20">
-        <v>1.012833044647514</v>
+        <v>1.012974140270511</v>
       </c>
       <c r="K20">
-        <v>1.025097863493648</v>
+        <v>1.025275099995505</v>
       </c>
       <c r="L20">
-        <v>1.008449038852145</v>
+        <v>1.008585884359358</v>
       </c>
       <c r="M20">
-        <v>1.029599598688368</v>
+        <v>1.029656657967438</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032039646695345</v>
+        <v>1.032084803550654</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02889591066477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029037867831565</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019165462608077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.979775485668464</v>
+        <v>0.9800918411754713</v>
       </c>
       <c r="D21">
-        <v>1.008036592835603</v>
+        <v>1.008447006761251</v>
       </c>
       <c r="E21">
-        <v>0.9904840202088114</v>
+        <v>0.9907712567717479</v>
       </c>
       <c r="F21">
-        <v>1.012221186275566</v>
+        <v>1.012358327469064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04327548623776</v>
+        <v>1.043476566839875</v>
       </c>
       <c r="J21">
-        <v>1.010143816318597</v>
+        <v>1.010446157380331</v>
       </c>
       <c r="K21">
-        <v>1.02286729249149</v>
+        <v>1.023270095881968</v>
       </c>
       <c r="L21">
-        <v>1.005647946624358</v>
+        <v>1.005929605570364</v>
       </c>
       <c r="M21">
-        <v>1.026974665527668</v>
+        <v>1.027109290057223</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029920949844612</v>
+        <v>1.030027497719704</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027322048163519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027623833009648</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01873659529012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9766349597022729</v>
+        <v>0.9770600560621794</v>
       </c>
       <c r="D22">
-        <v>1.005987720700369</v>
+        <v>1.006544964642511</v>
       </c>
       <c r="E22">
-        <v>0.9880575808980988</v>
+        <v>0.9884393901300806</v>
       </c>
       <c r="F22">
-        <v>1.010019497030382</v>
+        <v>1.010207458891384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04249061397168</v>
+        <v>1.042764266204296</v>
       </c>
       <c r="J22">
-        <v>1.008436060256852</v>
+        <v>1.008841202045381</v>
       </c>
       <c r="K22">
-        <v>1.021441485644786</v>
+        <v>1.021987870044705</v>
       </c>
       <c r="L22">
-        <v>1.0038693907469</v>
+        <v>1.004243397182068</v>
       </c>
       <c r="M22">
-        <v>1.02539504499459</v>
+        <v>1.0255793803238</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028670766265859</v>
+        <v>1.028816657751053</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026300279304724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02670228615463</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018460362091283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9782975124008653</v>
+        <v>0.9786650066103451</v>
       </c>
       <c r="D23">
-        <v>1.007067055020928</v>
+        <v>1.007546360894424</v>
       </c>
       <c r="E23">
-        <v>0.9893398316677948</v>
+        <v>0.9896716441924512</v>
       </c>
       <c r="F23">
-        <v>1.011186727296602</v>
+        <v>1.011347734833574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042904357185474</v>
+        <v>1.043139498358534</v>
       </c>
       <c r="J23">
-        <v>1.009336660038883</v>
+        <v>1.009687421533145</v>
       </c>
       <c r="K23">
-        <v>1.022190201610859</v>
+        <v>1.022660407599353</v>
       </c>
       <c r="L23">
-        <v>1.004807682966113</v>
+        <v>1.005132894330702</v>
       </c>
       <c r="M23">
-        <v>1.026232027403548</v>
+        <v>1.026390009315061</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029333192516964</v>
+        <v>1.029458226573439</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026819927683846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027167122145462</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018604417167752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847192881231933</v>
+        <v>0.9848674405650188</v>
       </c>
       <c r="D24">
-        <v>1.011252170395184</v>
+        <v>1.0114326542654</v>
       </c>
       <c r="E24">
-        <v>0.9943122583157855</v>
+        <v>0.9944530267989306</v>
       </c>
       <c r="F24">
-        <v>1.015710584383419</v>
+        <v>1.015768887390965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044480686963999</v>
+        <v>1.04456793232968</v>
       </c>
       <c r="J24">
-        <v>1.012818515727126</v>
+        <v>1.012960712466606</v>
       </c>
       <c r="K24">
-        <v>1.025084525319074</v>
+        <v>1.025261930851576</v>
       </c>
       <c r="L24">
-        <v>1.008439998777032</v>
+        <v>1.008578258818938</v>
       </c>
       <c r="M24">
-        <v>1.029467309625985</v>
+        <v>1.029524629291493</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031893737243769</v>
+        <v>1.03193910246464</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028858815773858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028998212225508</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019157936863739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9919043607417827</v>
+        <v>0.9918132453497812</v>
       </c>
       <c r="D25">
-        <v>1.015948588758074</v>
+        <v>1.01579856443212</v>
       </c>
       <c r="E25">
-        <v>0.9999086970202875</v>
+        <v>0.9998401823557544</v>
       </c>
       <c r="F25">
-        <v>1.020809379902174</v>
+        <v>1.020755392381612</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046187850084439</v>
+        <v>1.046111026625792</v>
       </c>
       <c r="J25">
-        <v>1.016707281150715</v>
+        <v>1.016619302854263</v>
       </c>
       <c r="K25">
-        <v>1.028304267366747</v>
+        <v>1.028156480315626</v>
       </c>
       <c r="L25">
-        <v>1.012508430515257</v>
+        <v>1.012440979793992</v>
       </c>
       <c r="M25">
-        <v>1.033093022693635</v>
+        <v>1.033039830470564</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034763274972377</v>
+        <v>1.034721176554408</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031132488634091</v>
+        <v>1.031041635802392</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019762362189935</v>
       </c>
     </row>
   </sheetData>
